--- a/backend/data/102.xlsx
+++ b/backend/data/102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B494"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,5908 +448,3600 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>대구로 집결한 전국 학교 비정규직 노동자들…"임금 교섭 타결 촉구"</t>
+          <t>[영상] 팝콘에서 나는 '이상한 냄새'…뜯어보니 밀수 담배 5만 갑</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>국가기록원, 독립운동가 이육사의 기록 복원·공개</t>
+          <t>전남 지역내 총생산·개인소득 증가…비제조업 '호황'</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[제주 24시] 한라산 중산간에 출현한 야생 들개 '골머리'</t>
+          <t>조선대 정시모집 1358명 선발···광역화 모집 실시</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>온몸에 멍든 채 사망한 재소자…법무부 “폭행 가능성, 수사 착수”</t>
+          <t>여수 출신 유명 연기자, 식품기준 어기며 김치 유통하다 덜미</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>“오미크론 밀접접촉자 격리기간 14→ 10일로 단축… 미국처럼 5일은 불가”</t>
+          <t>[인사] 신한은행</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"이통사, 10년간 LTE로 18조 초과이익…반값통신비 시행돼야"(종합)</t>
+          <t>2021년 대전충남 10대 환경뉴스 1위는 '보문산 개발'</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>닷새간 학생 690명 코로나19 확진…전국 학교 21.1% 방학</t>
+          <t>여수시, 아프간 특별기여자·가족에 생필품 지원</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>쓰러진 사람 구호 없이 돈만 빼간 40대 징역 1년</t>
+          <t>대구교육청, 온라인 콘텐츠 활용 교과서 선도학교 선정</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>대한민국 인재상 시상식 축사하는 유은혜 부총리</t>
+          <t>이준석 대표, 성상납 의혹 제기 강용석·김세의 고소</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[게시판] SPC그룹, 11년째 '헌혈 송년회' 개최</t>
+          <t>CU, ‘GET커피’ 뚜껑 종이로 바꾼다…연 100t 플라스틱 저감 기대</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"동선 입력하면 확진자 겹쳤는지 알려준다" 질병청 앱 시범 운영</t>
+          <t>[솔선守法]CSO 규제 강화에 대한 제언...지출보고서 공개 범위·방법 등 구체 내용 추가논의 필요</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>코오롱티슈진, 미국서 '인보사' 임상 3상 환자 투약 재개</t>
+          <t>정선군 내년 중점 추진 업무 점검</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>대한민국 인재상 시상식 축사하는 유은혜 부총리</t>
+          <t>원주 농산물 도매시장 연말연시 휴장</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>영천시, 내년부터 혼인신고 부부에 결혼장려금 300만원 지원</t>
+          <t>춘천시, 후평산업단지에 바이오 융복합 산업화 지원센터 추진</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>극동대 뷰티헬스솔루션센터 개소…음성 관련산업 도약 기대</t>
+          <t>디자인인포협동조합, 한남대 가족회사 협약</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>'2021 대한민국 인재상' 김제덕에 표창 수여하는 유은혜 부총리</t>
+          <t>근무지 화장실에 몰카 설치한 청주 경찰관 파면 "씻을 수 없는 실망감 안겨"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>김동연, '아동복지와 돌봄의 현안과 대책' 토론회 축사</t>
+          <t>고의 사고로 보험금 5억여원 챙긴 20대 징역 2년형</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>정부 "코로나19 유행 감소세로 전환"</t>
+          <t>[Law &amp; Scene] 앱 통한 성매매 중계·방조는 엄연한 불법</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[MBN 프레스룸] 12월 28일 오프닝</t>
+          <t>김종갑 전 한전 사장, 전남 명예 도민</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>김영록 전남지사 새해 '신해양·친환경수도 전남' 비전 제시</t>
+          <t>경기도의회 민주당 "내년에도 오직 도민만 바라보고 가겠다"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>군산의료원 규탄 행진</t>
+          <t>괴산사랑상품권 올해 230억원어치 팔려…역대 최대치</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>산청군, 올 한해 각종 평가서 우수 성과</t>
+          <t>남해 야산에 불…인명피해 없고 잔불 정리 중</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>'빛만 늘어가는 자영업자'</t>
+          <t>제주서 오미크론 감염 2명 발생…해외·타지역 입도객</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>‘추위 속 행진’</t>
+          <t>[인사] 대전시</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>‘추위 속 행진’</t>
+          <t>소방안전 ‘확장현실’ 차량 첫 도입…“외국인 안전교육 확대”</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[인사]완주군</t>
+          <t>광주 동부소방서, 화재 취약대상 방문 점검</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>오세훈 시장, '청년취업사관학교' 금천 캠퍼스 방문</t>
+          <t>서욱, '감염병 전담병원' 국군포천병원 현장 점검</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>“군산의료원 파업사태, 정부가 해결하라”</t>
+          <t>광주 동부소방서, 화재 취약대상 방문 점검</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>군산의료원 파업사태 해결 촉구하며 행진하는 보건의료산업노조</t>
+          <t>펜싱 금메달리스트 오상욱, 모교 대전대 명예 홍보대사 위촉</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>양구군 '착한 임대료' 운동 지속…공유지 대부료 80% 감면</t>
+          <t>법무부, 아동학대 대응 협업 유공자 18명 포상</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>“군산의료원 파업사태, 정부가 해결하라”</t>
+          <t>전남도, 지난해 GRDP 78조1천억원…2019년보다 1.5%↑</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>문경주 전 충남도기후환경국장 국민의힘 충남도당 입당</t>
+          <t>순찰차도 그대로 '쾅'…마약에 취한 광란의 도주극</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>국회 토론회 참석한 김동연 후보</t>
+          <t>당 섭취 '주범'…20대 탄산음료·50~60대 사과</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>"밥 왜 안줘" 잠자던 어머니 때려 숨지게 한 패륜 아들 구속</t>
+          <t>이준석 대표, '가세연' 출연진 명예훼손으로 고소</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>경남 거창항노화힐링랜드 고객만족도 조사결과 87%가 ‘만족’</t>
+          <t>손끝 통증 일으키는 사구체종, 조기 진단·치료 중요해 [건강 올레길]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>옛 선인들의 ‘명구(名句)’로 만든 내년 달력 ‘화제’</t>
+          <t>[전문 수사관이 뛴다] "디지털 증거 중요성 갈수록 커져...포렌식 수사로 사건 규명 사명감"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[인사] BNK경남은행</t>
+          <t>'국정농단' 최서원 "태블릿PC는 내 것, 돌려달라"‥검찰 "수사 당시에는 소유권 부인"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[인사] 전남 신안군</t>
+          <t>광주시, 2026년까지 문화기반시설 17곳 조성</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>“군산의료원 파업사태, 정부가 해결하라”</t>
+          <t>檢, 대장동 '로비 수사' 재시동?…박영수·김정태 등 연달아 소환</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[신년사] 신은호 인천시의회 의장 "새해엔 일상 회복되길"</t>
+          <t>서울행정·동부·서부 등 6곳, 법원장 후보군 추천 마쳐</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>군산의료원 파업사태 해결 촉구하며 행진하는 보건의료산업노조</t>
+          <t>역사왜곡 논란 '설강화' 상영금지 가처분 신청 기각</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>군산의료원 파업사태 해결 촉구하며 행진하는 보건의료산업노조</t>
+          <t>다음 주부터 방역패스 유효기간 적용…닷새 남았지만 벌써부터 시끌</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>오세훈 시장, '청년취업사관학교' 금천 캠퍼스 방문</t>
+          <t>‘설강화’ 상영금지 가처분 신청 기각 “예정대로 방영”</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>'장사도 폐업도 못하는 자영업자'</t>
+          <t>성인 10명 중 4명 코로나 이후 “체중 늘어“…1인당 평균 3.5kg 증가</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>‘공공의료 공백 방치하는 전라북도 규탄한다’</t>
+          <t>대산보험대상 보험연구원 상금 2천만원 자폐단체 기부</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>성탄절 교회앞에 쓰러진 60대 "일주일간 못먹어"…끝내 사망</t>
+          <t>제주서 오미크론 감염 2명 추가…1명은 닷새간 제주여행</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>영천시, 결혼장려금 3배 증가·300만원 지원</t>
+          <t>검찰, '대장동 의혹' 박영수 前특검 한달 만에 재소환</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>박형준 부산시장 3차 공판 비공개로 진행</t>
+          <t>언론단체 "대기업 지상파 소유규제 완화, 미디어를 대기업에 상납"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>오피스텔 누수 현장 점검하던 40대 ‘발 헛디뎌’ 추락</t>
+          <t>"폐지 팔아 모은 돈"…1천만원 놓고 사라진 노인</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>식약처, 모다모다 샴푸 '위해성 우려' 염모성분 퇴출키로 '강력 조치'</t>
+          <t>'거리두기' 한 차례 더 연장으로 가닥</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[인사]경남은행 승진·전보</t>
+          <t>“눈가가 시큰”…서울광장에 등장한 하트♡ 눈길 [포착]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>'아동복지와 돌봄의 현안과 대책' 토론회 참석한 김동연 새로운물결 대선 후보</t>
+          <t>"미래 50년 열매 맺기 위한 '의령살리기 운동' 원년으로"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>‘코로나19 인력확보 촉구한다’</t>
+          <t>시큐리티 어워즈 코리아 2021</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>'전국최초 지역화폐 통합 운영' 음성군, 대통령상 받아</t>
+          <t>[포토] 재외동포재단·서울대·시흥시 MOU</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>청와대 방향으로 행진하는 집회 참석자들</t>
+          <t>[인사] 한국언론진흥재단 / 서울시 / DGB금융그룹 등</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>음성 극동대에 뷰티헬스솔루션센터 개소</t>
+          <t>[부음] 정재귀씨 별세 외</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>끝 안보이는 터널"…장사도 폐업도 못해</t>
+          <t>청주 상당구 …후보 간 ‘신경전’ 시작?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>청와대 방향으로 행진하는 집회 참석자들</t>
+          <t>윤석열 "공수처, 독재시절 하던 짓…대통령되면 책임 묻겠다"(종합)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>법무부 "공주교도소 수용자 사망사건 수사...은폐 없었다"</t>
+          <t>배송 차질에 저소득층 쌀 걱정…수급 계획 주먹구구?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[인사] 강진군</t>
+          <t>경남 219명 확진·1명 사망…어제 265명 '일일 최다'(종합2보)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>청와대 방향으로 행진하는 집회 참석자들</t>
+          <t>경남 219명 확진…목욕탕·회사·학교 집단감염 지속(종합)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>청와대 방향으로 행진하는 집회 참석자들</t>
+          <t>시큐리티 어워즈 코리아 2021</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>김병욱 의원, “학급당 학생 수·지역별 실정에 맞춰야” ...관련법안 발의</t>
+          <t>'악취'나던 부산 초량 생태하천 재정비…예산 8억여원 투입</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>'청년취업사관학교' 금천 캠퍼스 개관식</t>
+          <t>부안군, 지역역사 복합문화공간 '역사문화관' 개관</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>여수시, 전남도 수산물 원산지표시 '최우수'…500만 원 포상</t>
+          <t>충북 시민단체 2021년 10대 시민운동 선정 발표</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>비슬산 케이블카 사업 '재추진' 아니면 '포기' 기로에선 달성군</t>
+          <t>오미크론 하루새 109명, 우세종 순식간…'거리두기 연장' 힘실려</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[프레스룸 날씨]낮부터 한파 누그러져…미세먼지 농도↑</t>
+          <t>[영상] '마약 운전'에 실탄 11발 격발…긴박했던 체포 현장</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>‘노적성해(露積成海)’…정읍시, 2022년 사자성어 선정</t>
+          <t>남해 야산서 산불…헬기 6대·50여명 투입</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>'영업시간 제한 풀릴때까지 휴무합니다'</t>
+          <t>고의사고로 5억여원 보험금 타낸 동네 선후배 사기단</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[보령소식]김동일 시장, 우수 시정모니터 요원 표창 수여 등</t>
+          <t>창원시 여성 인구, 전출자가 전입자 보다 40% 이상 많다</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[부고] 최근배(부성산업 대표)씨 장인상</t>
+          <t>정선 코로나19 확진자 1명(167번) 발생.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 사업부문 인수 작업 마무리</t>
+          <t>유명 탤런트 운영 김치업체, 식품위생법 위반 혐의로 검찰 송치</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>대구 ‘제야의 타종’ 무관중 행사 진행…시민 접근 차단· 유튜브 생중계</t>
+          <t>택배 왜 안 오나 했더니…밤마다 ‘2300만원 어치’ 훔친 알바생</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>교도소 수감 앞두고 확진…광주 63명·전남 24명</t>
+          <t>2030세대 뉴스 소비에 대한 오해와 진실</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6·25 전사 경찰관 2명 71년 만에 현충원 안장…DNA로 신원 학인</t>
+          <t>경기남부경찰청, 6세 원아 폭행·정서적 학대한 어린이집 교사 구속</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>서울 송파구 지하 주차장서 화재…100여명 대피</t>
+          <t>[광주소식]전남대병원 김남호, 혈액투석여과연구회장 선출 등</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>함양군-키르기스스탄, 우호 교류 협약 및 계절근로자 도입 업무협약</t>
+          <t>"지역특색 살린 답례품으로 기부 활성화를"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>광주은행, 디지털·해외사업·소비자 보호 역점 조직개편</t>
+          <t>8천억 투자유치·해외진출…서울시 창업지원 '결실'</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>삼육보건대 간호학부, '학생 포트폴리오 경진대회' 시상식</t>
+          <t>"중대재해 사고 60%, 건설업종에서 발생"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>변시 합격자, 변협 외 법원·검찰청서 실무연수 가능해진다</t>
+          <t>충북 새해 1분기 기업경기 전망 다소 부정적</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>"미래 도시 체험하러 오세요"…미래도시 테마파크 '루카치키' 개관</t>
+          <t>12월 광주·전남 기업경기지수 비제조업 ↓ 제조업 ↑</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>경남지역 소상공인 방역지원금 지급 개시</t>
+          <t>2명 통신영장으로... 공수처, 野의원 단톡방도 통째 털었다</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>대법 새해 10일 '제1심 민사 단독관할 확대' 공청회 개최</t>
+          <t>'미군기지 반환' 부산시민공원, 토양오염 논란</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>광주지법, 국민참여재판 우수법원 선정…코로나 속 5건 진행</t>
+          <t>[신년사] 이철우 경북도지사 “호랑이 기상으로 당당한 경북 만들겠다”</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>최근 닷새간 학생 하루 평균 680여 명 확진…소아청소년 2차 접종률 47% 넘어</t>
+          <t>‘레드바이오’와 결별한 CJ그룹 다시 돌아오게 만든 ‘마이크로바이옴’의 매력은</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>방역당국 “오미크론 감염 4명 늘어…백신 접종 독려”</t>
+          <t>경남 남해군 야산에서 불...잔불 정리 중</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>"경보음 없이 풀린 전자발찌"...법무부 "신형 보급 중"</t>
+          <t>울산 북구, 노인정책분야 우수지자체 선정…장기요양 분야 높은 평가</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3년 차 이상 민방위 대면교육 47년 만에 폐지</t>
+          <t>행안부, 내년 소방안전교부세 8,647억 원 지자체 교부</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>안양시, 도시생태현황지도 제작…서식 동식물 2229종 확인</t>
+          <t>[부산] 부산소방재난본부, 소방 업체 등 법령 위반 80건 적발</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>경남정보대 신임 총장, 김대식 동서대 대외협력부총장 선임</t>
+          <t>구인에도 채용 못한 '미충원 인원' 11만4천명…10년만에 최다(종합)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>법무부 "공주교도소 재소자 사망사건 수사 착수···폭행 가능성"</t>
+          <t>정치개혁경남행동 “선거구획정 불통 도지사권한대행 교체 투쟁”</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>자랑스러운 충북도민 수상자 3명 선정…요소수 위기 극복 기여</t>
+          <t>경찰, 김건희 '허위 경력 의혹' 고발인 조사</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>'박치기 왕' 故 김일 선수 동상 고향 고흥에 건립</t>
+          <t>내년에 달라지는 전라남도 시책은?…7대 분야, 127건</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>경기도 ‘농촌기본소득’ 시범대상지에 연천군 청산면 선정</t>
+          <t>‘역사 왜곡 논란’ 설강화 상영금지 가처분 기각…예정대로 방영</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MBN '대한민국 좋은정책대회' 개최</t>
+          <t>부산 동명대에 대학병원급 동물병원 유치 움직임 본격화</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>경기도내 60세 이상 3차 접종률 82%…두달만에 신규확진↓</t>
+          <t>매일신문 선정 2021년 대구경북 10대 뉴스</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[부고] 배극인(동아일보 논설위원)씨 모친상</t>
+          <t>오늘의 부고 종합</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>청주 내수·북이 주민들 "공군 비행장 이전하라" 촉구</t>
+          <t>5t 트럭에 현금 다발과 저금통…22년째 이어진 ‘얼굴 없는 천사’의 선행</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>거창군, 2021년 하반기 퇴직 공무원…명예로운 공직생활 마감</t>
+          <t>통계로 확인된 소상공인 매출 반토막…빚만 늘었다</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>줄지어 설치된 노숙인 텐트</t>
+          <t>국내 최초 민간과학 로켓 블루웨일0.1 제주 상공을 날다(종합)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>줄지어 설치된 노숙인 텐트</t>
+          <t>문화중심도시 광주 기반시설 확대에 총력</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>서울시, '로봇‧드론' 등 4차산업 청소년 교육 강화</t>
+          <t>임실군 ‘화물자동차 공영차고지’ 준공…주차난 해소 기대</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>[창원24시] 창원시, 한국형 항모 도입 특별세미나 개최</t>
+          <t>제주 버스정류소 상당수 교통약자 접근성 떨어져</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>10년 넘게 골목 청소한 할아버지, 성탄 전날 만취 덤프트럭에 ‘참변’ [영상]</t>
+          <t>내일부터 오미크론 확진자 ‘확’ 늘 듯</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>당국 "오미크론 확진자·밀접접촉자 격리 14→10일 단축"</t>
+          <t>워케이션·친환경여행 인기..내년 디깅·백신클럽 득세</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>가야대, 취업이 강한 대학으로 자리매김</t>
+          <t>각급 법원, 법원장 후보 추천 완료...다음달 25일 결정</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>서울역 노숙인 방역 상황은?</t>
+          <t>“한손으로 안다가”…신생아 떨어뜨려 숨지게 한 산후도우미</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>신임 한국출판문화산업진흥원장에 김준희 전 능률교육 대표이사</t>
+          <t>CJ 택배 노동자들, 사회적 합의 이행 촉구</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>정읍시, 내년부터 모든 출산 가정에 ‘첫만남이용권’ 200만원 지원</t>
+          <t>경찰, 尹 부인 김건희 '허위 경력 의혹' 고발인 조사</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[인사] 한국기술교육대</t>
+          <t>실탄 발사하는 경찰</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>서울역 노숙인 방역 상황은?</t>
+          <t>실탄 발사하는 경찰</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>코로나·추위 뚫고 정예 공군부사관 380명 탄생</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>구로구, '상습정체' 좁은 도로 곳곳 확장…"교통불편 해소"</t>
+          <t>제주 5가구중 1가구 월평균 소득 '200~300만 원'</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>내일 다시 ‘한파’ 아침 최저 영하 12도…1일까지 영하 10도</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>거제 하루사이에 42명 확진, 초등2개·고교 1개교 임시선별진료소 설치</t>
+          <t>어린이집·유치원 관련 오미크론 추정 사례 13건 추가, 확산세 일파만파</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>[교육소식]디제이케어 장대정 대표, 충남대 발전기금 기부 등</t>
+          <t>산재보험료율 4년 만에 인하 제동···인상 수순 밟나</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>서울 중구, ‘어린이 안전대상’ 행안부 장관상 수상</t>
+          <t>[신년사] 임종식 경북도교육감 “따뜻한 경북교육 향한 동행 완성해 나가겠다”</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>박형준 3차 공판 비공개 진행…국정원 직원 출석</t>
+          <t>"연내 짐싸라" 임대차 갈등…부산 반여자동차매매단지 계약연장 해결 실마리</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[인사]경상남도선거관리위원회</t>
+          <t>실내체육시설 방역 점검</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>여수시, 소제지구 택지개발 현장 '민원상담실' 운영</t>
+          <t>문체부 2차관, 실내체육시설 방역 점검</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>마주 앉은 윤호중-김기현, 여야 원내대표 회동</t>
+          <t>실내체육시설에 방역물품 전달하는 오영우 2차관</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>김재연 "CJ대한통운, 대국민 사과하고 사회적 합의 이행하라"</t>
+          <t>박근혜, 설까지 병원서 치료… "의료진 소견 따라 결정"</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>“밥 안 차려줘서…” 잠자던 어머니 폭행해 숨지게 한 30대</t>
+          <t>한국산기대, '정왕권 평생학습 특화 프로그램' 운영</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>남부발전, 2045 탄소중립 달성 선포</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>설강화 예정대로 방영···법원, 상영금지 가처분 기각</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>제주영어교육도시 2단계 '주민참여'로 갈등조정</t>
+          <t xml:space="preserve">한국도로공사, 노사 합동 ESG 경영 선포  </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>'설강화' 상영금지 가처분 신청 기각…"국민이 맹목적으로 수용 어려워"(종합)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>거창군, 사전예약 없이 3차 접종 당일 실시</t>
+          <t>오늘의 인사 종합</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>영주여고 영여 예술제 "우리가 기획한 축제, 끼 맘껏 발산했죠"</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>'천천히 걸으세요' 코로나19 환자 이송하는 의료진</t>
+          <t>'(사)연제이웃사랑회' 감염보호복 1,750벌 지정 기부…부산소방재난본부 감사 인사</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초에 초대형 벽화</t>
+          <t>삼바, 송도 산업시설 용지 우선협상대상자 선정</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>메타버스로 '어린이 화상병원' 체험해보니</t>
+          <t>검찰, '50억 클럽' 박영수 한달만에 재차 소환</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>오미크론 확진자·밀접접촉자 격리 14일에서 10일로 단축</t>
+          <t>시민단체 "'광주시, 무등산 케이블카 설치 구상 철회해야"</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>원주 코로나19 확진자 1명(3,032번) 추가 발생</t>
+          <t>오영우 2차관, 실내체육시설에 방역물품 전달</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>악수하는 윤호중-김기현, 원내대표 회동</t>
+          <t>오영우 2차관  ‘실내체육시설 방역현장 점검’</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2022년엔 '탄소중립 포인트' 모아보세요</t>
+          <t>실내체육시설 방역 점검하는 오영우 2차관</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>동파 배관 점검하던 40대 노동자 추락사..."안전장비 미착용"</t>
+          <t>[1보] JTBC  '설강화' 상영금지 가처분 신청 기각…예정대로 방영</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>[게시판] 소상공인연합회. 국회의원 12명에 '초정대상' 시상</t>
+          <t>[속보] '50억 클럽 의혹' 박영수 전 특검 두번째 검찰 출석</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>의식 잃고 쓰러진 행인 구호 조치는 커녕 돈만 '슬쩍'</t>
+          <t>델타 확산세 꺾인 지금, 오미크론 대응 의료체계 마련할 골든타임 [뉴스분석]</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>진주시, 아동복지시설 종사자 처우 대폭 개선…도내 유일 ‘호봉제’ 추진</t>
+          <t>영덕군,‘2022년 겨울방학 대학생 일자리 사업’ 참여자 선발</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>'음주운전 차단' 전주시설공단, 임직원 매년 운전경력 확인</t>
+          <t>검찰, '50억 클럽' 박영수 전 특검 재소환</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>오세훈 서울시장 '문과생도 성공사례 많이 나왔으면'</t>
+          <t>포항시, '2022년 호미곶 등 해맞이 행사 취소'</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>구호 외치는 김재연</t>
+          <t>'설강화' 상영금지 가처분신청 기각…법원 "국민 맹목적 수용 안해"(종합)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>구호 외치는 CJ대한통운 택배노동자들</t>
+          <t>도로교통공단, 사랑의 열매에 508만원 성금 기부</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>청년취업사관학교 금천캠퍼스 '수료생에게 듣는 바라는 점'</t>
+          <t>불법 촬영 카메라 설치한 경찰관 파면…"직분 망각한 행위"</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>천막 공사 중 추락사 12월에만 2명…고용부, 안전수칙 준수해라</t>
+          <t>신한은행, 52~53세 본부장 대거 선임해 세대교체</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>청년취업사관학교 금천캠퍼스 개관</t>
+          <t>대구교육청, 2022학년도 후기고 입학전형 합격자 발표</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>연천군, '포천세무서 연천군민원실' 개소…군민 국세 관련 편의 높여</t>
+          <t>광주교육청-학교비정규직연대, 단체협약 체결…휴가 확대</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>위중증 천명대, 긴장감도는 코로나 전담병원</t>
+          <t>지인과 짜고 수차례 고의 사고… 보험금 5억 5000만원 탄 20대</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>오세훈 서울시장 '안녕하세요'</t>
+          <t>'설강화' 예정대로 방영…상영금지 가처분 신청 기각</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>인사말하는 오세훈 서울시장</t>
+          <t>경찰관 잇단 감염…정용근 충북청장, 일선서 방역 점검</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CJ대한통운 택배노동자 집회 참석한 김재연</t>
+          <t>전남병원간호사회, 화순전남대병원에 발전후원금 기탁</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>청년취업사관학교 금천캠퍼스 개관</t>
+          <t>경남도, 서부경남 우주·활력·복합도시로 만든다</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>오세훈 서울시장 '청년취업사관학교 금천캠퍼스 개관을 축하합니다'</t>
+          <t>안양문화예술재단, 인권경영문 선포</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>폐경 여성, 우울증 있으면 ‘골다공증 위험’ 1.4배↑</t>
+          <t>"코로나19 번질라" 충북 해넘이·해맞이 2년째 올스톱</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>덕산, 적십자사 제주지사에 희망나눔 특별성금 1억원 기탁</t>
+          <t>'내부 비리 폭로' 최혁진 보훈공단 이사, 공단 관계자 고소</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>[인사] BNK경남은행</t>
+          <t>의정부을지대병원 2대 병원장에 김병식 교수 취임</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>인하대병원, 외래진료비 카카오 간편결제 서비스</t>
+          <t>대전 찾은 우원식 “내년 대선, 향후 20년 정치지형 결정”</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>청년취업사관학교 금천캠퍼스 찾은 오세훈 서울시장</t>
+          <t>돈이 없어서...미혼남녀 10명 중 6명 “결혼은 사치”</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>8일째 위중증 환자 천명대, 긴장감도는 전담병원</t>
+          <t>인천 지역화폐, 최우수기관상</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>구호 외치는 김재연</t>
+          <t>[인사] 경기 용인시</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>오세훈 서울시장 '성공사례 많이 나오길'</t>
+          <t>한국도로공사, 노사 합동 ESG 경영 선포</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>전국 지하 철도시설물 레이더로 탐사한다…지반침하 사고 예방</t>
+          <t>내년에 달라지는 경기도 행정제도와 정책은</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>[인천] 인천교육감 "학생 접종률이 내년 전면등교에 영향"</t>
+          <t>CJ대한통운 택배노조 파업 이틀째…노원 등 일부 지역 택배발송 중단</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>송파구 21층 건물 지하 주차장서 불…100여명 대피</t>
+          <t>이준석, '성접대 의혹' 제기한 강용석·김세의 명예훼손 고소</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>구호 외치는 CJ대한통운 택배노동자들</t>
+          <t>박화진 고용차관, 배달 라이더 고용보험 적용 내용 안내</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>국토부 앞에 모인 CJ대한통운 택배노동자들</t>
+          <t>배달 라이더 고용보험 적용 안내하는 박화진 차관</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>"전북 보건의료노동자 절반이상 대체휴일 근무하고 보상 못받아"</t>
+          <t>'새해부터 퀵서비스·대리기사도 고용보험 가입 가능'</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>전북 참예우 우수 축산물브랜드 인증 14년 연속 수상</t>
+          <t>새해부터 퀵서비스·대리운전기사도 고용보험 적용</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>구호 외치는 CJ대한통운 택배노동자들</t>
+          <t>'내년부터 배달라이더도 고용보험 적용됩니다'</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>[속보] '통장증명 위조' 징역 1년 윤석열 장모 항소</t>
+          <t>인천교통공사, 내달부터 지하철 7호선 부천 구간 운영</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>"지역 예술발전 기여"…제천문화재단 장관상 수상</t>
+          <t>김해시 올해 ‘베스트 시정 10’ 선정</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>내년부터 선박교통관제구역 진출신고 의무 완화</t>
+          <t>남도학숙 내년 신규 입사생 모집</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>규탄 피켓 든 CJ대한통운 택배노동자들</t>
+          <t>[속보] 이준석 측, 성상납 의혹 제기 가세연 '허위사실 명예훼손' 고소</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>홍성 장곡에 대중 골프장 들어선다…군·금비레저 MOU 체결</t>
+          <t>현대건설, 평택 서정동에 1107가구 규모 ‘스테이트 평택 더퍼스트’ 분양</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>국토부 앞에 모인 CJ대한통운 택배노동자들</t>
+          <t>광주시, 에너지자립 마중물 에너지 전환기금 조성</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>국토부 앞에 모인 CJ대한통운 택배노동자들</t>
+          <t>대전, 산단 제한업종 조정 검토</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>대전 자치경찰부장에 임정주 서울청 정보상황과장 내정</t>
+          <t>CJ대한통운 택배노조 파업 2일차 "이재현 회장 답하라"[뉴시스Pic]</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>규탄 피켓 든 CJ대한통운 택배노동자들</t>
+          <t>오세훈 '생존지원금 7700억' 최종 협의안…시의회 결정은</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>검찰, 외주 제작비 부풀려 3억 원 챙긴 EBS PD 구속기소</t>
+          <t>대학 정원 줄이면 '당근' 못줄이면 '채찍'…1조 투입해 감축유도(종합)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>진료센터로 향하는 코로나19 환자</t>
+          <t>경기도, 감사제보 처리 우수기관</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>규탄 피켓 든 CJ대한통운 택배노동자들</t>
+          <t>오늘의 운세 (2021년 12월 30일 木)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>익산 마동지역주택조합 일부 조합원 "사기 피해" VS 대행사 "정상 업무 중"</t>
+          <t>현행 거리두기 '2주 연장' 가닥…당정 "연장 필요성 공감"</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>집회 준비하는 CJ대한통운 택배노동자들</t>
+          <t>기업들 내년 1분기에만 40만명 채용…14년만에 최대 역대 최다 규모</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>“밥 안 주고 계속 잠자서...”  60대 어머니 때려 숨지게 한 30대 구속</t>
+          <t>동신대, 30일 정시 가·다군 원서접수 시작…1월3일까지</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>[포토]성남종합버스터미널 휴업 철회, 내년 정상 운영</t>
+          <t>강릉원주대 치위생학과 졸업예정자 전원, 국가고시 합격</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>[포토]성남버스터미널 휴업 방침 전격 철회</t>
+          <t>[영상] 잔인한 도살·무허가 번식…여전한 불법 개 사육장 등 적발</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>포항대, 기관평가인증 전 분야 '충족' 판정 받아</t>
+          <t>노래방으로 위장하고 불법영업한 강남 유흥주점 적발</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>[포토]성남시외버스터미널, 내년에도 정상운행 합니다</t>
+          <t>동신대, 30일 정시모집 가·다군 원서 접수 시작</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>[포토]성남시외버스터미널, 내년 1월 휴업예고 철회키로</t>
+          <t>검찰, ‘50억 클럽 의혹’ 박영수 전 특검 재소환</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>파노로스바이오, 에임드바이오와 공동연구···"신약개발 시너지 기대"</t>
+          <t>한국일보 남보라·전혼잎 기자, 한국여성기자상 수상</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>충남 가로림만에 저수온 주의보 발령</t>
+          <t>[인사] 경북 예천군</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>부산 사흘 연속 200명대 추가 확진…확산세 주춤(종합)</t>
+          <t>검찰, '50억클럽 의혹' 박영수 전 특검 재소환</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>강원도개발공사, 자투리사랑·매칭그랜트 성금 복지단체 전달</t>
+          <t>삼성, 中시안 반도체 사업장 가동률 낮춰…낸드 업황 영향주나(종합2보)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>[게시판] 대법원, '민사소송 1심 단독재판부 관할 확대' 공청회</t>
+          <t>[영상] "우리 딸, 엄마 왔어"…26년 만에 모녀 비대면 눈물 상봉</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓여 있는 벼</t>
+          <t>'자폐인 디자이너 사회활동 지원사업 협약식'</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓여 있는 벼</t>
+          <t>'자폐인 디자이너 사회활동 지원사업 협약식'</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>[교육소식] 광주국제개발협력센터, 광주형 ODA 주제 세미나 등</t>
+          <t>[신년사] 도성훈 인천교육감 "미래교육 도약 준비하겠다"</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓여 있는 벼</t>
+          <t>광주시민단체 “무등산 케이블카 설치 철회하라”</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓여 있는 벼</t>
+          <t>화순군, 행안부 정보공개 평가서 등급 올라 ‘최우수’</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>'백신패스' 강화에 한숨만 늘어가는 자영업자들</t>
+          <t>광양제철소, '포스튜브 경진대회' 성과물 공유 활성화</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>순천시 "70세 이상 운전면허 반납하면 50만 원 지급"</t>
+          <t>이준석 측, 성상납 의혹 제기한 '가세연' 강용석 등 고소</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>소아청소년 1차 접종률 70%돌파…“백신 접종이 최선의 방법”</t>
+          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>대구 출신 BTS 멤버 '뷔' 생일축하 벽화</t>
+          <t>고용보험 적용 내용 안내하는 고용부 차관</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>전남도, K-바이오 선도할 벤처 육성 박차</t>
+          <t>검찰, ‘통신 조회 논란’ 공수처장 고발 사건 수사 착수</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>전남도, K-바이오 선도할 벤처 육성 박차</t>
+          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>빙판길 사고 외국인 돕던 외국인 3명 차량에 치어 숨져</t>
+          <t>[인사] 대전시</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[포토]성남종합버스터미널 내년 휴업 철회</t>
+          <t>'오징어 게임'으로 소개하는 K컬처, '랜드 오브 스퀴드 게임' 국영문 출간</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>"제설장비 없이 장병들만 X뺑이"···軍, 제설 지원 논란</t>
+          <t>신한은행 월계동지점 폐쇄, 주민 힘으로 막았다</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>삼성 한종희·경계현·고동진, KT 구현모 대표, 공학한림원 정회원 됐다</t>
+          <t>도산서원 방문한 윤석열 대선 후보</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[인사] 한국전기안전공사</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>충북참여연대 "청주시 산하 위원회 느는데 질적 평가 없어"</t>
+          <t>윤석열 후보, 안동 도산서원 방문</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초 외벽에 아트벽화</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초에 초대형 벽화</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>안양시 비봉산 힐링공원 조성공사 완료…목재데크·파고라·유아체험장 등 재탄생</t>
+          <t>하버드 의대, 심장 공격하는 백혈구 증가 원인 밝혀냈다</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>부산~울산 잇는 '광역전철'</t>
+          <t>낙후된 서부경남, 언제 미래 첨단도시로 변신할까</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>수매한 벼 살피는 농협 관계자</t>
+          <t>'설강화' 예정대로 방영…법원, 상영금지 가처분 기각</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초 외벽에 아트벽화</t>
+          <t>현행 거리두기 2주 연장 가닥…與, '선지원 후정산' 지원 검토</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>수매한 벼 살피는 농협 관계자</t>
+          <t>윤석열 후보,"문재인 정부의 탈원전 정책 절차와 정당성 잃었다"</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초에 초대형 벽화</t>
+          <t>“올해도 3명의 할머니가…” 보수단체 훼방 속 열린 2021년 마지막 수요시위</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>부산~울산 잇는 '광역전철'</t>
+          <t>식약처 "내년부터 업소용 달걀도 포장해 유통해야"</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>수매한 벼 살피는 농협 관계자</t>
+          <t>'이재명 호남표 챙긴다'…강기정, 민주당 텃밭서 진두지휘</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>수매한 벼 살피는 농협 관계자</t>
+          <t>공주대 김광훈 교수, 해양수산과학기술대상 우수상</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>대구 출신 BTS 멤버 '뷔' 생일축하 벽화</t>
+          <t>이낙연 전면 등판...싸늘한 호남 민심 되돌리기 나선다</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[인사] BNK경남은행</t>
+          <t>광주광역시, 출생아 수 전국 유일 10개월 연속 증가</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>‘순천에서 안동까지’ 순천 7인의 용사 ‘대선승리’ 영남공략</t>
+          <t>검찰, '대장동 50억 클럽 의혹' 박영수 전 특검 재소환</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>울산~부산 잇는 광역전철</t>
+          <t>삼성SDI 자회사 STM은 ‘산재 은폐’…한화는 폭발사고로 5명 숨져</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>푸른바다 가르며</t>
+          <t>검찰, ‘50억원 클럽’ 의혹 박영수 전 특검 소환…로비 수사 재시동</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>울산서 부산 향하는 광역전철</t>
+          <t>'개관 18년 차' 대구 아양스포츠센터 소규모 리모델링…내년 상반기 2개월 휴관</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 개통, 푸른바다 달리는 광역전철</t>
+          <t>"궁궐 청소서 시작한 한국 문화 알리기"...문화단체 '아름지기' 30일부터 부산 특별전</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>울산~부산 잇는 동해선 2단계 개통, 달리는 광역전철</t>
+          <t>남부발전, 2045년 화력발전 무탄소 에너지 전환 선언</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>'푸른바다 가르며'</t>
+          <t>조선대 정시모집 1358명 선발…광역화 모집</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>거창군 "새해 감악산 해돋이 집에서 감상하세요"</t>
+          <t>[인사]목원대</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>한려해상국립공원에서도 사실상 일출 못봐 '7시부터 개방'</t>
+          <t>의협 "격리해제자도 음성확인서를" 정부 "전세계 어디도 안 해"</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>당국 "다음 주부터 오미크론 밀접접촉자 격리기간 10일로 단축"(상보)</t>
+          <t>[인사] 광주은행</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>대구 출신 BTS 멤버 '뷔' 생일축하 벽화</t>
+          <t>[울산소식]울주군, 대한민국 좋은 정책대회서 최우수상 등</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>'푸른바다를 달려'</t>
+          <t>국방장관, 코로나19 전담 국군포천병원 현장점검</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>울산서 부산 향하는 광역전철</t>
+          <t>[인사] 목원대</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>'푸른바다를 달려'</t>
+          <t>'더 크고 더 강한 광주'…광주대전환 특위 본격 가동</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 구간 달리는 광역전철</t>
+          <t>식약처 "내달부터 음식점·제과점용 달걀도 포장한 뒤 유통해야"</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초 외벽에 아트벽화</t>
+          <t>고의사고만 70여 차례…5억여원 보험금 타낸 20대 징역형</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 개통, 푸른바다 달리는 광역전철</t>
+          <t>김종효 광주시 행정부시장, 코로나19 대시민 호소문 발표</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>의협, "격리 해제 후 PCR검사 없이 병원 이용 안돼"</t>
+          <t>김종효 광주시 행정부시장, 코로나19 대시민 호소문 발표</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초 외벽에 아트벽화</t>
+          <t>노래방서 13세 女가 성매매 거절하자…18세 실장 마이크로 폭행한 30대 ‘실형’</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 구간 달리는 광역전철</t>
+          <t>'노동자 500일 넘게 투쟁' 일본 산켄전기, 고용노동부 공문에도 무응답</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>푸른바다 가르며</t>
+          <t>[포토] 라인건설&amp; 라인장학재단, 무정초교 장학금 전달</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>당정, 쌀값 안정 위한 시장격리 결정</t>
+          <t>최서원 "태블릿PC 돌려달라…내가 썼던 것인지 확인해야"</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>경기도 코로나19 신규 확진자 2달 만에 감소세</t>
+          <t>성인 10명 중 4명 "코로나19 때문에 체중 증가"</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>구민들이 직접 보고 듣고 만들었다…동작구 신년 소식지 발행</t>
+          <t>'전남교육 발전 공헌 5명' 제41회 전라남도교육상 수상</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>긴장감도는 코로나19 전담병원</t>
+          <t>“더 어려운 이웃을 위해”…전주 중증장애인 부부 13년째 수급비 모아 기부</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 구간 달리는 광역전철</t>
+          <t>지구대 화장실에 몰카 설치한 경찰 파면</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>울산~부산 잇는 동해선 2단계 개통, 달리는 광역전철</t>
+          <t>13세女 성매매 거절했다고…18세 실장 구타한 30대 실형</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>당정, 쌀값 안정 위한 시장격리 결정</t>
+          <t>부산시, 지역 대학병원에 추가 치료병상 확보 요청</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BNK경남은행, 172명 승진 등 정기인사 단행</t>
+          <t>그린랩스, 매출 1000억 돌파…새해 디지털농업 해외진출 본격화</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>울산서 부산 향하는 광역전철</t>
+          <t>‘사회적 거리두기’ 2주 연장되나...자가 동선확인 앱 활용 검토(종합)</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>철원군, 옛 군부대 터 활용해 야외 빙상장 운영</t>
+          <t>[인사] 울진군</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>내년부터 선용품 공급도 수출로 인정된다</t>
+          <t>종교시설 방문자 명부 작성하는 황희 장관</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>울산~부산 잇는 동해선 2단계 개통, 달리는 광역전철</t>
+          <t>[인사]신한은행</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>대장동 사업기간 내년 3월 말까지 연장… 부분 준공 승인 검토</t>
+          <t>[인사]경남 거제시</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>"화이자 먹는 치료제, 함께 복용하면 위험한 약 있어"…전문가 의견은</t>
+          <t>[교육소식]한밭대, 앤에스티와 산학협력 활성화 협약 등</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>이준석, 지역균혈발전 모색 정책토론회 축사</t>
+          <t>카지노서 돈 잃은 50대...가스총 들고 강도 돌변</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>한국예술원(KAC) 영화예술계열, 제25회 졸업 영화제 성료</t>
+          <t>검찰, '수사 무마' 의혹 윤석열·윤대진 무혐의</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 구간 달리는 광역전철</t>
+          <t>종교시설 방역현장 의견 듣는 황희 장관</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 개통, 푸른바다 달리는 광역전철</t>
+          <t>대구 동구, 안심배달음식점·우수 식품제조업체 선정</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>당정, 쌀값 안정 위한 시장격리 결정</t>
+          <t>김종식 목포시장 "새해도 미래성장 동력 육성 총력"</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>'푸른바다를 달려'</t>
+          <t>김 총리 “코로나19 확산세 진정”…일상회복위 방역조치 연장 논의</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>당정, 쌀값 안정 위한 시장격리 결정</t>
+          <t>사장이 쌍욕에 협박을 해도 ... '직장갑질' 검찰 송치는 단 1%, 왜?</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>울산서 부산 향하는 광역전철</t>
+          <t>'검찰총장 눈·귀' 대검 수정관실 폐지한다… 박범계 "수집·검증 분리"</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>울산~부산 잇는 광역전철</t>
+          <t>안산시, 내년도 공유재산 584곳 사용료·대부료 감면</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>'푸른바다를 달려'</t>
+          <t>과기부, '유료방송업계 상생협의체' 개최 관련 브리핑 [TF사진관]</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>강원 코로나 19 확진 감소...오미크론 변이 확산 우려</t>
+          <t>국민의힘 울산시당, 봉사·복지·시민소통위원회 발대식 개최</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>강북구, 내년 출생아부터 첫만남이용권·영아수당 매달 지원</t>
+          <t>국내 최초 민간 과학로켓 발사, 시스템 정상 작동</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[뉴시스Pic] 정부서울청사 앞으로 나온 보건의료노조 "군산의료원 파업·의료인력 대책 마련하라"</t>
+          <t>부산교육청-공무원 노조, 4년만에 단체협약 체결</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2021 인천시 미디어아트 '나도 크리에이터' 공모전 수상작 발표</t>
+          <t>[오늘의 운세]  12월 30일 목요일(음력 11월 27일 壬子)</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓인 벼</t>
+          <t>인권침해 논란 빚었던 대구 청소년쉼터…시 전수조사 후 1월까지 감독 나선다</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓인 벼</t>
+          <t>안동시, 관광거점도시 육성사업 ‘기재부 적정성 재검토’완료 본격 추진</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓인 벼</t>
+          <t>충북 오후 4시 58명 확진…교육·보육기관 감염 지속</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>국가중심 국공립대 총장협의회장에 권순태 안동대 총장 선출</t>
+          <t>김주하 AI 앵커와 함께하는 이 시각 주요 뉴스 - 12월 29일 오후 5시</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>광주지방법원, 국민참여재판 '우수법원' 선정</t>
+          <t>황희 문화체육관광부 장관 ‘종교시설 방역현장 점검’</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>윤성미 경남도의원, 학교변 횡단보도 교통안전 제도개선 촉구</t>
+          <t>종교시설 방역상황에 대한 의견 나누는 황희 장관</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>전북한우광역브랜드인 '참예우' 14년 연속 우수축산물 브랜드</t>
+          <t>경찰, 김건희 '허위 경력' 의혹 고발인 조사</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>전남교육청, '직업계고 현장실습 추가 개선방안' 마련 촉구</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>지역균혈발전 모색 정책토론회 참석한 이준석 대표</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[대구24시] 류성걸 "수사기관 개인통신기록 무단 열람 막아야"</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>'이슬이 모여 바다를'…정읍시, 내년 시정운영 '노적성해(露積成海)'</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓인 벼</t>
+          <t>부산구치소·부산혈액원, 헌혈문화 확산 협약</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>금오공대 정현재 '2021 대한민국 인재상' 수상</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>'쌀값 하락 막는다'</t>
+          <t>[속보]법원, JTBC 드라마 ‘설강화’ 방영금지 신청 소송 기각</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 시장격리'</t>
+          <t>수도권과 가까워진 천안...내년 3월 전철-시내버스 환승 할인</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>황희 장관, 종교시설 방역 상황 점검</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>황희 장관, 종암중앙교회 방문</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>'과잉 공급 쌀 27만 톤 시장격리'</t>
+          <t>[속보] '설강화' 상영금지 가처분 신청 기각…예정대로 방영</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>김천시, 영유아 4천100명에 보육 재난지원금…30만원씩 지급</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>황희 장관, 종교시설 방역 상황 점검</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>울주군 아파트서 화재…주민 6명 부상</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>경남대학교, '2021 대학기관평가' 인증 획득</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>울산 남구, 추억의 고교시절 특화거리 조성 추진</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>'쌀값 하락 막는다'</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>쌀 27만 톤 정부 매입</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>어머니 폭행해 숨지게 한 혐의 30대 아들 구속</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>정부 “위중증·사망 감소할 것…31일 거리두기 단계 결정”</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>'해맞이 명소' 삼척해수욕장 1월 1일 오전 6∼8시 출입 통제</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>진료센터로 이송되는 코로나 환자</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>운전 중 '탕'…제주 도심 한복판서 엽총 오발사고</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>학교 확진자 나와도 보건소 지원 늦어…조희연 “질병청 전담부서 신설을”</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>식당으로 돌진한 차주, “급발진” 주장…술 냄새 맡은 경찰에 덜미</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>경남교육청, 정보공개 종합평가 3년 연속 '최우수'</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>코로나19 한 달여 만에 3천명대…병상대기 일주일 새 420명→9명</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>답변하는 이준석 대표</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>시민도 과감한 경찰 원한다…10명 중 8명 “신규장비 도입해야”</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>울산서 광역열차 탄 文 "저도 곧 동남권 돌아올 사람…꿈 같다"</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>[경제계 인사]BNK금융지주 外</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>BNK경남은행, ‘2022년 상반기 승진·전보인사’ 단행</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>고교 2학년생 무더기 산업기사 자격증 취득 '화제'</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>동해선(부산~울산) 복선전철, 28일 완전개통…전구간 76분 소요</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>임실군, 국토부 주관 ‘도시재생 예비사업’ 선정</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>용산구, 자매도시 7곳과 베트남 진출 MOU…한류콘텐츠 함께 만든다</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>서울대 경영대·현우문화재단, '현우 곽수일 학술상' 제정</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>"지방자치법 이렇게 바뀐다"…부안군의회, 역량강화 교육</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>아산서 빙판길 교통사고 돕던 외국인 근로자 등 3명 참변(종합)</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>[인사] JB금융그룹 전북은행</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>"이재명 후보와 함께 젊은 제주 만들 것"</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>"연금 70만원으로 생활" 34년째 거인병 은메달리스트, 보조금 1000만원 받는다</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>北피격 공무원 가족 “문 대통령 퇴임 전 정보 공개하라”</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>'출신학교 차별금지법 제정을…' 입시경쟁·사교육 근절 위한 11가지 공약</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>고려대, 제9회 KU혁신포럼 개최</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>이준석 "선대위, 인적쇄신 없이 변화 어렵다"</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>인권정책기본법 국무회의 통과…인권위 "인권보장 토대"</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>[창녕24시] 군민 구강건강 지킴이로 나선 창녕군</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>서울고법, 첫 형사 영상재판 진행</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>울산 동구, 동구문화원·현대예술관 문화예술 진흥 협약</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>광주지방법원, 국민참여재판 우수법원으로 선정</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>바쁜 코로나 외래진료센터 의료진</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>순천서 제1회 한중창업혁신포럼 열려…중관촌과 협력</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>경기도 조세정의과, '지방재정 우수사례' 대통령상·장관상 수상</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>美 저명한 중국사 전문가 스펜스 교수 별세</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>최기주 아주대 제17대 총장</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>‘통섭’ 주창한 사회생물학 대가 윌슨 별세</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>50년전 공짜로 얻어먹은 홍합 한그릇… “이제라도 빚 갚고싶다”</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr"/>
-      <c r="B345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>“萬有同一體 태도로 어려움 이겨나가길”</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>롯데, 이웃사랑 성금 70억</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>‘롯데홈쇼핑 20년사’ 발간</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>경북교육청, 내년 후기高 합격 현황 공개</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 파업결의대회 참석한 김재연 진보당 대선후보</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 파업 집회 참석한 김재연 진보당 대선후보</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>코로나 환자 폐기물 치우는 의료진</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>코로나19 환자 병실에서 나오는 폐기물</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>코로나19 전담병원으로 향하는 발걸음</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>진주 소재 학교 관련 집단감염 7명 추가…누적 65명</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>오미크론 확진자·밀접접촉자 격리 14→10일로 줄인다</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>&lt;인사&gt; 경찰청</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>극지연구소, 남극대륙 K루트 개척</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>김문기 유족 “이재명·민주당 조의 없었다, 키우던 개도 죽으면...”</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>[단독] ‘삼청교육대 배상’ 소송 단체 대표는 맥아더 동상에 불 지른 사람</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>대한전문건설협회 부산시회, 부산교육청에 교육기부금 전달</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>부산시·BPA·남부발전, 민관합동 코워킹 스페이스 문열었다</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>의생명기업 케이엠지, 부산에서 김해로 본사·공장 이전</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>강원랜드, 폐광지 작은 식당 살리기 20호점 개점</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>71년만에 돌아온 6·25 참전 경찰관 2명 합동 안장식 거행</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>인천 공장, 건설 현장서 노동자 잇따라 사망</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>'코인 일확천금' 노린 40대 男…"10년 모은 3억 원 날려"</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>'코로나 환자 폐기물 처리는 철저히'</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>코로나19 위중증 역대 1102명 역대 두번째</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>코로나19 위중증 1102명</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>코로나19 전담병원 들어가는 환자</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>8일째 코로나19 위중증 환자 천명대</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>합천군-공무원노조 합천군지부, 2020년 단체협약 체결</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>사과하는 진경호 전국택배노동조합 위원장</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>거창 항노화 힐링랜드, 관광객 88.5% 서비스 품질 만족</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>50년 전 얻어먹은 홍합 한그릇…수표로 갚은 70대 노인</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>6·25 전사 경찰관 2명, 71년 만에 현충원 안장</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>정읍시, 내년부터 출생아 한 명당 200만 원의 바우처 지급</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>이송되는 코로나19 환자</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>나주시, 종이 수입증지 사용 전면 폐지한다</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>이재명 측근 정진상 "검찰 출석 거부 사실 아냐, 일정 조율 중"</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>질 높은 급식 위해...경기교육청, 식품비·인건비 분리 지원</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>[인사] 전남 강진군</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>구(舊) 장흥교도소, 장흥군 문화 복합공간으로 탈바꿈</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>[사천소식] 학교 밖 청소년 전용공단 '꿈다락' 문 열어</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>광주은행 부행장보 4명 발탁 인사…조직개편</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>[팩트체크] 코로나 간호사들, 정규직 사표 내고 파견직으로 간다?</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>공주대, '세종캠퍼스 학교사랑 1평 갖기' 발전기금 기탁식</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>6·25 전사 경찰관 2명, 71년 만에 현충원 안장</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>북녘에 ‘전북 낙농단지-종자단지’ 조성 … 남북협력 사전승인</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>인천항만공사, 한국농수산식품유통공사와 독거노인 1000명에 도시락 전달</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>광주시, 내년 교육경비 보조금 지원 182억원 투입</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>남원시 시민안전보험, 코로나19 등 감염병 확대 적용</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>“확진자 동선과 겹치나 확인”…방역당국, 자가입력 앱 검토 중</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>세종시 국토부 앞 파업결의대회 갖는 CJ대한통운 택배노조</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>고준위방사성 폐기물 관리…이재명 "뾰족한 수 없어…떠안고 살아야"</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '무기한 파업 결의대회'</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>박형준 3차 공판 비공개 진행…국정원 직원 증인 출석</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>멈춰있는 컨베이어벨트</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '무기한 파업 결의'</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>창원시, 여성·청소년용 공영자전거 선보여…휠 줄여 높이 낮춰</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>완도군, 기초생활보장 우수 지자체 ‘선정’</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>'화이자 알약' 못먹는 코로나 환자는?…"대체제 검토 중"</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>구호외치는 CJ대한통운 택배노조</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>구호 외치는 CJ대한통운 택배노조</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '표준계약서 상 과로 유발 조항 철회 촉구'</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '표준계약서 과로유발, 택배요금 이익금 배분 개선'</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '무기한 파업'</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>대전시 지역화폐 '온통대전' 내년 2조 원 발행</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>인사말하는 조형곤 상임대표</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>축사하는 장기표 전 국민의힘 대선 경선 후보</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>서울정상화 시민협의체 출범식</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>진만성 서울정상화시민협의체 상임대표</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>서울정상화시민협의체 출범</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>서울정상화시민협의체 출범</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>축사하는 윤창현 의원</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>인사말하는 이종배 상임대표</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '총파업 결의대회'</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>택배요금 인상분 배분 개선 촉구하는 CJ대한통운 택배노조</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>'표준계약서 과로 유발 조항 삭제하라!'</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>시흥시 "2710세대 공급 '월곶역세권 도시개발사업' 본격 추진"</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>마산대 강도명 처장·이혜미 팀장, 교육부장관 표창 수상</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>구호 외치는 CJ대한통운 택배노조</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>GS칼텍스, 여수지역 홀몸 어르신 가정에 떡국 나눔</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>‘갑론을박’ 지역화폐 하나로마트 사용…농협·제주도 각각 영향분석 연구 발주</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>‘형제복지원’ 피해자, 30명 국가 상대 소송... “진정한 사과 원해”</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>구미 금오공대 정현재 학생, '2021 대한민국 인재상' 수상</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>권순태 안동대 총장 국가중심국공립대학교 총장협의회장 선출</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>MRI 촬영 중 날아온 산소통에 60대 사망…경찰 “병원 과실”</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>파업 결의대회 갖는 CJ대한통운 노조 조합원들</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>국토부 앞 파업 집회 갖는 CJ대한통운 노조</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>[인사]경찰청</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>[포토]전국택배노조, '총파업 결의'</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>[포토]전국택배노조, '총파업 결의대회 투쟁!'</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>[포토]CJ대한통운 노조, "사회적 합의 이행하라"</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>[포토]투쟁 머리띠 두른 CJ대한통운 택배기사들</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>[포토]CJ대한통운 택배노조 1700명, 무기한 총파업 돌입</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>[포토]출정식에서 구호 외치는 CJ대한통운 택배기사들</t>
-        </is>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>[포토]구호 외치는 CJ대한통운 택배기사들</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>인천국제공항공사, 희망나눔 성금 10억 기부</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>편의점에 차량 돌진..."사이드 브레이크 풀려"</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>전북도, 임산부에 친환경농산물 선물</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>[포토]구호 외치는 택배기사들</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>[포토]택배기사노조, 탐욕의 질주를 막아내자!</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업, 노조원과 비노조원</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>의류수거함에 아이 유기 20대 친모, 다른 두 아들도 학대·방임</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>"내년부터 대학원생·전문기술석사도 취업 후 상환 학자금 대출 가능"</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>"중2 딸, 접종 후 '풍'…예약한 내 손 자르고 싶어" 울분의 靑 청원</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>전북, 10개 시군서 102명 확진…오미크론 누적 109명↑</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>손이 시려워요</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>창원대학교 , 30일부터 2022학년도 정시모집 원서 접수</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>난로에 의지하며</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>의령 ㈜화림테크 김욱춘 대표, 성금 1000만원 기탁</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>오미크론 밀접접촉자 격리 '14→10일' 단축</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>여수시, 양지고가교 철거…7개월간 차로 축소 운영</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>[포토]CJ대한통운 택배기사노조, 탐욕의 질주를 막아내자!</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>시비거는 취객 밀쳐 숨지게 한 30대…항소심서 감형</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>옛 농협창고가 청소년 예술공간으로…순창 순화문화창고 개관</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>먹을 것 안 줬다고…60대 어머니 때려 숨지게 한 아들</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>탄소중립으로 아낀 에너지 절감액으로 이웃 돕는 김해시민</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>농협, 계약재배 51명에 채소가격안정제 등 15억6천만 원 지원</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>50년전 신촌서 얻어먹은 홍합 한 그릇…노인은 2000달러로 갚았다</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>GS칼텍스, 강추위 속 '따뜻한 떡국 나눔'</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>MRI 찍다가 산소통에 눌려 숨진 환자…경찰 "의료사고 맞다"</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>강용석 "이준석, 제발 빨리 우릴 고소해 달라…정계은퇴 걸고"</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>“운전경력 증명서 제출하라” 전주시설공단, 음주운전 근절 총력</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>경무관급 48명 전보 인사…자치경찰협력정책관 손장목</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>오미크론 감염 4명 늘어 449명…강원서 가족간 n차감염 의심(종합)</t>
-        </is>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>포항대, 전문대학 기관평가인증 ‘전분야 충족’ 판정</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>대장동 준공 승인 내년 3월로 연기…성남시 “부분 승인 검토”</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>정부, 노후건축물 등 2만 3천여 시설 점검…“33% 위험요인 발견”</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>여수시, 26년간 기능 다하고 철거되는 양지고가교</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>대구 설화명곡역 비대면 스마트 도서관 운영…청라언덕·대구역도 추가 개관</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>[포토]CJ대한통운 택배기사 노조, 오늘부터 총파업…배송차질 불가피</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>30년간 조국 해양 수호한 해군 함정 8척 전역</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>"영산강 수질악화는 광주 제1하수처리장 방류수 탓"</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>12~17세 1차 접종률 71.1%…1주일만에 10% 수직상승</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>동아대병원, 내년 1월부터 극희귀질환 환자 치료 가능해진다</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>[인사]건설공제조합</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>화이자 먹는 치료제 1차 2만명분 도입…충분할까</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>박남춘 인천시장, 소상공인연합회 '2021 목민상' 수상</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>[포토]CJ대한통운 오늘부터 총파업…배송차질 불가피</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>[포토]택배기사 총파업으로 배송되지 못하는 택배상자들</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>헌재 “표준지 기준으로 공시지가 산정하는 부동산공시법 합헌”</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>[포토]가득 쌓인 택배상자 앞 지나가는 파업 택배노조원</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>&lt;인사&gt; HK콜마</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>"올림픽 이후 거인병" 고백…김영희, 보조금 1000만원 받는다</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>

--- a/backend/data/102.xlsx
+++ b/backend/data/102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B301"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,3600 +448,2400 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[영상] 팝콘에서 나는 '이상한 냄새'…뜯어보니 밀수 담배 5만 갑</t>
+          <t>충북도민 45% "거주 시·군 일자리 충분하지 않다"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 17:29</t>
+          <t>2021.12.29 18:33</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>전남 지역내 총생산·개인소득 증가…비제조업 '호황'</t>
+          <t>상습 허위 초과근무수당 챙긴 옥천군 공무원 중징계 요청</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 17:29</t>
+          <t>2021.12.29 18:33</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>조선대 정시모집 1358명 선발···광역화 모집 실시</t>
+          <t>서울시, 민생·방역예산 2300억원 추가 제안</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 17:29</t>
+          <t>2021.12.29 18:33</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>여수 출신 유명 연기자, 식품기준 어기며 김치 유통하다 덜미</t>
+          <t>Omicron cases on the rise along with critically ill</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 17:29</t>
+          <t>2021.12.29 18:32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[인사] 신한은행</t>
+          <t>"소아·청소년 백신패스 반대" 충북 민간단체 집회</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 17:29</t>
+          <t>2021.12.29 18:32</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021년 대전충남 10대 환경뉴스 1위는 '보문산 개발'</t>
+          <t>[로터리] 가족친화인증 마크 있나요</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 17:29</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>여수시, 아프간 특별기여자·가족에 생필품 지원</t>
+          <t>청주시 관광기념품 본정초콜릿, 보리직지글빵 등 7개 품목 선정</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>대구교육청, 온라인 콘텐츠 활용 교과서 선도학교 선정</t>
+          <t>대구 달서구 단독주택 지붕 수리 도중  60대 근로자 추락사</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>이준석 대표, 성상납 의혹 제기 강용석·김세의 고소</t>
+          <t>[부산일보 선정 2021 국내·국제 10대 뉴스]  원점으로 돌아간 ‘코로나 터널’</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CU, ‘GET커피’ 뚜껑 종이로 바꾼다…연 100t 플라스틱 저감 기대</t>
+          <t>박영수 전 특검 검찰 소환 연기…출석 일정 조율 중</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[솔선守法]CSO 규제 강화에 대한 제언...지출보고서 공개 범위·방법 등 구체 내용 추가논의 필요</t>
+          <t>[인사]인천국제공항공사·신한은행·하나금융투자</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 17:28</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>정선군 내년 중점 추진 업무 점검</t>
+          <t>[내일 날씨] 서울 아침 -8도 다시 기온 '뚝'…곳곳에 눈·비도</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>원주 농산물 도매시장 연말연시 휴장</t>
+          <t>버닝썬 '경찰총장' 윤규근 총경, 정직 3개월 처분</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>춘천시, 후평산업단지에 바이오 융복합 산업화 지원센터 추진</t>
+          <t>영산강청 '대기오염물질 처리 위반' 등 사업장 8곳 적발</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>디자인인포협동조합, 한남대 가족회사 협약</t>
+          <t>여수광양항만공사, 내년부터 광양항 자동화항만 구축사업 착수</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>근무지 화장실에 몰카 설치한 청주 경찰관 파면 "씻을 수 없는 실망감 안겨"</t>
+          <t>재택치료관리 의료기관 병원 현장점검</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>고의 사고로 보험금 5억여원 챙긴 20대 징역 2년형</t>
+          <t>재택치료관리 의료기관 병원 현장점검</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[Law &amp; Scene] 앱 통한 성매매 중계·방조는 엄연한 불법</t>
+          <t>최종문 강원경찰청장, 원주 단계지구대 격려 방문</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 17:27</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>김종갑 전 한전 사장, 전남 명예 도민</t>
+          <t>최종문 강원경찰청장, 원주 단계지구대 격려 방문</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>경기도의회 민주당 "내년에도 오직 도민만 바라보고 가겠다"</t>
+          <t>울산 중구, 성안동 식당 등 10곳 착한가게 단체 가입</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>괴산사랑상품권 올해 230억원어치 팔려…역대 최대치</t>
+          <t>건보 보장률 70%로 올린다더니… 文케어 목표 사실상 실패</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>남해 야산에 불…인명피해 없고 잔불 정리 중</t>
+          <t>부산구치소-부산혈액원, 헌혈문화 확산 업무협약</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>제주서 오미크론 감염 2명 발생…해외·타지역 입도객</t>
+          <t>오규석 기장군수 "신형연구로 개발 신속추진 해달라"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[인사] 대전시</t>
+          <t>지구대 화장실 '보디캠' 몰카 경찰관 파면...지구대장 인사 조치</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>소방안전 ‘확장현실’ 차량 첫 도입…“외국인 안전교육 확대”</t>
+          <t>"학·석·박사 한꺼번에 딴다"…서울대, 통합과정 도입</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>광주 동부소방서, 화재 취약대상 방문 점검</t>
+          <t>오후 6시까지 서울 1천110명 확진…어제보다 172명 적어</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>서욱, '감염병 전담병원' 국군포천병원 현장 점검</t>
+          <t>대법원 비정규직 미화원 해고 철회 촉구 기자회견</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>광주 동부소방서, 화재 취약대상 방문 점검</t>
+          <t>춘천시, '출산장려금' 내년부터 200만 원 지급</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.29 17:26</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>펜싱 금메달리스트 오상욱, 모교 대전대 명예 홍보대사 위촉</t>
+          <t>경남중·고 동기모임 ‘금요포럼’ 취약계층에 8년째 연탄 기부</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>법무부, 아동학대 대응 협업 유공자 18명 포상</t>
+          <t>[인사] ㈜무학</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>전남도, 지난해 GRDP 78조1천억원…2019년보다 1.5%↑</t>
+          <t>부산지역 고교생 4명 ‘대한민국 인재상’ 수상</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>순찰차도 그대로 '쾅'…마약에 취한 광란의 도주극</t>
+          <t>고법 “임종헌 ‘재판부 기피신청’ 기각 결정, 다시 따져라”</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>당 섭취 '주범'…20대 탄산음료·50~60대 사과</t>
+          <t>[인사] 하나금융투자</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>이준석 대표, '가세연' 출연진 명예훼손으로 고소</t>
+          <t>언론노조가 던진 대선 화두 '미디어와 산업 분리'</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>손끝 통증 일으키는 사구체종, 조기 진단·치료 중요해 [건강 올레길]</t>
+          <t>밤마다 집하장서 택배 슬쩍… 2300만원어치 훔친 20대 징역 1년</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[전문 수사관이 뛴다] "디지털 증거 중요성 갈수록 커져...포렌식 수사로 사건 규명 사명감"</t>
+          <t>대우조선해양건설, 경주에 ‘엘크루 헤리파크’ 분양</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.29 17:25</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>'국정농단' 최서원 "태블릿PC는 내 것, 돌려달라"‥검찰 "수사 당시에는 소유권 부인"</t>
+          <t>오후 6시 전국 최소 3302명 확진…전날보다 469명 감소</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>광주시, 2026년까지 문화기반시설 17곳 조성</t>
+          <t>최서원 "태블릿PC 돌려달라...내가 썼던 것인지 확인해야"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>檢, 대장동 '로비 수사' 재시동?…박영수·김정태 등 연달아 소환</t>
+          <t>마약에 취한 조직폭력배 도주...실탄 11발 발사해 체포</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>서울행정·동부·서부 등 6곳, 법원장 후보군 추천 마쳐</t>
+          <t>해맞이 명소 통제 제각각...'풍선효과' 우려</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>역사왜곡 논란 '설강화' 상영금지 가처분 신청 기각</t>
+          <t>영주사랑 상품권, 설명절 앞두고 구매 한도 월 100만원 상향</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>다음 주부터 방역패스 유효기간 적용…닷새 남았지만 벌써부터 시끌</t>
+          <t>"믿었는데"···'유명 女배우 운영' 여수 김치업체 檢송치</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>‘설강화’ 상영금지 가처분 신청 기각 “예정대로 방영”</t>
+          <t>전주 노송동 얼굴없는 천사의 성금상자 전달 교란작전명은…'교회 언저리'</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:25</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>성인 10명 중 4명 코로나 이후 “체중 늘어“…1인당 평균 3.5kg 증가</t>
+          <t>서울 관악구 아파트 화재‥3명 연기흡입</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>대산보험대상 보험연구원 상금 2천만원 자폐단체 기부</t>
+          <t>[인사] 광주시</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.29 17:24</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>제주서 오미크론 감염 2명 추가…1명은 닷새간 제주여행</t>
+          <t>"이웃 돕고 싶어요" 인천 태권도장 원생 100여명, 라면 640봉지 기부</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>검찰, '대장동 의혹' 박영수 前특검 한달 만에 재소환</t>
+          <t>오후 6시 서울 확진자 1110명…전날보다 172명 감소</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>언론단체 "대기업 지상파 소유규제 완화, 미디어를 대기업에 상납"</t>
+          <t>이재명 아들 의혹 '묻지마 폭로'…與팩트체크에 野 8시간만 철회(종합2보)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>"폐지 팔아 모은 돈"…1천만원 놓고 사라진 노인</t>
+          <t>부산항만공사 노사, 18년연속 무분규 임단협 체결</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>'거리두기' 한 차례 더 연장으로 가닥</t>
+          <t>숲공원된 쓰레기매립장, 24만 부산시민 위로했다</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>“눈가가 시큰”…서울광장에 등장한 하트♡ 눈길 [포착]</t>
+          <t>[단독] “미접종자 혈액 정부가 관리한다” 괴담에 헌혈 줄어들라</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>"미래 50년 열매 맺기 위한 '의령살리기 운동' 원년으로"</t>
+          <t>‘버닝썬 경찰총장’ 윤규근 총경, 정직 3개월 징계</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>시큐리티 어워즈 코리아 2021</t>
+          <t>[포토뉴스] 전국한우협회-산림청, 탄소중립 협력 맞손</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[포토] 재외동포재단·서울대·시흥시 MOU</t>
+          <t>[부고] 이용우씨 별세 外</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[인사] 한국언론진흥재단 / 서울시 / DGB금융그룹 등</t>
+          <t>[인사] 울산시 중구</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:24</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[부음] 정재귀씨 별세 외</t>
+          <t>'팀워크는 우리가 최고' 대구 서부소방, 탑-팀 선발</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>청주 상당구 …후보 간 ‘신경전’ 시작?</t>
+          <t>울산 47명 신규 확진…중구 목욕탕 관련 6명 추가(종합)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.29 17:23</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>윤석열 "공수처, 독재시절 하던 짓…대통령되면 책임 묻겠다"(종합)</t>
+          <t>고성 바닷가 화장실에 갓 출산한 영아 유기한 20대 붙잡혀</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>배송 차질에 저소득층 쌀 걱정…수급 계획 주먹구구?</t>
+          <t>누리호 '미완의 성공' 원인은…"3단 산화제 탱크 이상"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>경남 219명 확진·1명 사망…어제 265명 '일일 최다'(종합2보)</t>
+          <t>매출만 올리고 공익사업 외면… 대형유통사 부산 지역기여 '낙제점'</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>경남 219명 확진…목욕탕·회사·학교 집단감염 지속(종합)</t>
+          <t>BNK금융, 착한 임대인 운동 연장… ESG 경영 실천</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>시큐리티 어워즈 코리아 2021</t>
+          <t>부산시교육청, 예술학교 2곳 설립… 창작역량 강화한다</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>'악취'나던 부산 초량 생태하천 재정비…예산 8억여원 투입</t>
+          <t>부산市, 내년부터 무료법률상담실 운영… 시민권익 보호</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>부안군, 지역역사 복합문화공간 '역사문화관' 개관</t>
+          <t>[인사] 산업은행 ; DGB금융그룹 ; 신한카드 등</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>충북 시민단체 2021년 10대 시민운동 선정 발표</t>
+          <t>[인사]청도군</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>오미크론 하루새 109명, 우세종 순식간…'거리두기 연장' 힘실려</t>
+          <t>내일부터 새해까지 매서운 한파…충남·전북에 눈</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:23</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[영상] '마약 운전'에 실탄 11발 격발…긴박했던 체포 현장</t>
+          <t>경남 177명 추가…미국·탄자니아서 입국 3명 오미크론 확진</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>남해 야산서 산불…헬기 6대·50여명 투입</t>
+          <t>시흥시, 지역사랑 상품권 '우수' 지자체 선정</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>고의사고로 5억여원 보험금 타낸 동네 선후배 사기단</t>
+          <t>[디라이브] “항공권 비싸질 수 있다…일부 노선 인상폭 제한할 듯”</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>창원시 여성 인구, 전출자가 전입자 보다 40% 이상 많다</t>
+          <t>"청주시 산하 위원회 15％, 지난해 회의 한 번도 열지 않아"</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>정선 코로나19 확진자 1명(167번) 발생.</t>
+          <t>[인사] 전남 영암군</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>유명 탤런트 운영 김치업체, 식품위생법 위반 혐의로 검찰 송치</t>
+          <t>[포토뉴스] 축산과 산림의 기후위기 공동대응‘숲속 한우농장 만들기’업무협약</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>택배 왜 안 오나 했더니…밤마다 ‘2300만원 어치’ 훔친 알바생</t>
+          <t>"백혈병 친구를 도와주세요"…청주 용성초 학생들 친구돕기 모금</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2030세대 뉴스 소비에 대한 오해와 진실</t>
+          <t>이준석, 가세연 고소...강용석 “동영상 깐다”</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:22</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>경기남부경찰청, 6세 원아 폭행·정서적 학대한 어린이집 교사 구속</t>
+          <t>광주시, 출생아 수 전국 유일 10개월 연속 증가</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.29 17:22</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[광주소식]전남대병원 김남호, 혈액투석여과연구회장 선출 등</t>
+          <t>[인사]수협중앙회</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>"지역특색 살린 답례품으로 기부 활성화를"</t>
+          <t>[인사]수협중앙회</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8천억 투자유치·해외진출…서울시 창업지원 '결실'</t>
+          <t>[인사]DGB금융그룹</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:21</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>"중대재해 사고 60%, 건설업종에서 발생"</t>
+          <t>서울 오후 6시까지 1110명 확진…어제보다 171명 적어</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>충북 새해 1분기 기업경기 전망 다소 부정적</t>
+          <t>[인사] 인천항만공사</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>12월 광주·전남 기업경기지수 비제조업 ↓ 제조업 ↑</t>
+          <t>광주·전남서 '오미크론' 확진자 연쇄감염 등 123명 확진</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2명 통신영장으로... 공수처, 野의원 단톡방도 통째 털었다</t>
+          <t>40년만에 오를까…방통위, KBS 수신료 인상안 국회 제출</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>'미군기지 반환' 부산시민공원, 토양오염 논란</t>
+          <t>부산에 대학동물병원 설립 속도... 동명대, 사업 자문위원 13명 위촉</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[신년사] 이철우 경북도지사 “호랑이 기상으로 당당한 경북 만들겠다”</t>
+          <t>조선대학교병원 제24대 병원장 김경종 외과 교수 '취임'</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>‘레드바이오’와 결별한 CJ그룹 다시 돌아오게 만든 ‘마이크로바이옴’의 매력은</t>
+          <t>한양대, 미래의료 연구할 '생명과학기술원' 개원</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.29 17:21</t>
+          <t>2021.12.29 18:20</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>경남 남해군 야산에서 불...잔불 정리 중</t>
+          <t>제주 평화로에 말 출몰 소동...교통 체증 빚어져</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>울산 북구, 노인정책분야 우수지자체 선정…장기요양 분야 높은 평가</t>
+          <t>이준석, '성 상납' 의혹 제기한 가로세로연구소 고소</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>행안부, 내년 소방안전교부세 8,647억 원 지자체 교부</t>
+          <t>광주시, 국·과장 48명 전보…첫 여성 대변인 탄생</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[부산] 부산소방재난본부, 소방 업체 등 법령 위반 80건 적발</t>
+          <t>광주 중학교 야구부 등 5명 동급생 추행·폭행···검찰 송치</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>구인에도 채용 못한 '미충원 인원' 11만4천명…10년만에 최다(종합)</t>
+          <t>[부고]최재영(영진전문대 총장)씨 모친상</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:19</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>정치개혁경남행동 “선거구획정 불통 도지사권한대행 교체 투쟁”</t>
+          <t>은평구청장 "신분당선 서북부 연장, 예타 선정 환영"</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>경찰, 김건희 '허위 경력 의혹' 고발인 조사</t>
+          <t>[인사] 하나금융투자</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:18</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>내년에 달라지는 전라남도 시책은?…7대 분야, 127건</t>
+          <t>[속보] 오후 6시 3332명…전날 동시간 대비 393명↓</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.29 17:20</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>‘역사 왜곡 논란’ 설강화 상영금지 가처분 기각…예정대로 방영</t>
+          <t>[인사] 광주광역시</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.29 17:19</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>부산 동명대에 대학병원급 동물병원 유치 움직임 본격화</t>
+          <t>박범계 "김건희 수사 가이드라인 아냐...총장 지휘권 복원 검토"</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.29 17:19</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>매일신문 선정 2021년 대구경북 10대 뉴스</t>
+          <t>창원특례시 한발 더…소방안전교부세 50% 증가</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.29 17:19</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>오늘의 부고 종합</t>
+          <t>[인사] 울산시 중구</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.29 17:19</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5t 트럭에 현금 다발과 저금통…22년째 이어진 ‘얼굴 없는 천사’의 선행</t>
+          <t>"북항 재개발·2030세계박람회, 새로운 부산 위한 큰걸음 될것"</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.29 17:19</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>통계로 확인된 소상공인 매출 반토막…빚만 늘었다</t>
+          <t>‘버닝썬 경찰총장’ 윤규근, 파면 아닌 정직 3개월 징계</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>국내 최초 민간과학 로켓 블루웨일0.1 제주 상공을 날다(종합)</t>
+          <t>[인사]경상남도 4급 전보</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>문화중심도시 광주 기반시설 확대에 총력</t>
+          <t>울산시, 내년 1월 5일 희망지원금 10만 원 지급</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>임실군 ‘화물자동차 공영차고지’ 준공…주차난 해소 기대</t>
+          <t>서울대 신입생 7년이면 박사 딴다</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>제주 버스정류소 상당수 교통약자 접근성 떨어져</t>
+          <t>[포토] 전국한우협회-산림청, ‘숲속 한우 농장 만들기’ 업무협약 체결</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:17</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>내일부터 오미크론 확진자 ‘확’ 늘 듯</t>
+          <t>[인사]한국산업인력공단</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>워케이션·친환경여행 인기..내년 디깅·백신클럽 득세</t>
+          <t>[인사] 경남 김해시</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>각급 법원, 법원장 후보 추천 완료...다음달 25일 결정</t>
+          <t>[인사] 구리시</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>“한손으로 안다가”…신생아 떨어뜨려 숨지게 한 산후도우미</t>
+          <t>울산 47명 신규 감염…목욕탕·학교 연쇄감염 지속(종합)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.29 17:18</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CJ 택배 노동자들, 사회적 합의 이행 촉구</t>
+          <t>"연말 거리의 '빨간 냄비' 1만개 기부했죠"</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>경찰, 尹 부인 김건희 '허위 경력 의혹' 고발인 조사</t>
+          <t>전통주까지 파는 골든블루···"종합주류회사 도약"</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:16</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>실탄 발사하는 경찰</t>
+          <t>대한항공 인천~선양 내달 중순까지 운항금지</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>실탄 발사하는 경찰</t>
+          <t>하나금투, 디지털·WM부문 강화 조직개편…여성·젊은 인재 발탁</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>코로나·추위 뚫고 정예 공군부사관 380명 탄생</t>
+          <t>이준석 측, 성상납 의혹 제기한 `가세연` 강용석 김세의 고소</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>제주 5가구중 1가구 월평균 소득 '200~300만 원'</t>
+          <t>사회복지교육協 회장에 이봉주 교수</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:15</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>내일 다시 ‘한파’ 아침 최저 영하 12도…1일까지 영하 10도</t>
+          <t>광주시, 국·과장급 52명 전보 인사 단행…여성 첫 대변인</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>어린이집·유치원 관련 오미크론 추정 사례 13건 추가, 확산세 일파만파</t>
+          <t>軍에서 오미크론 변이 확진자 3명 발생...추가접종 가속화</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>산재보험료율 4년 만에 인하 제동···인상 수순 밟나</t>
+          <t>코로나 변이 오미크론 신규확진 '최다'…해외 유입 관리강화 추가 연장</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>[신년사] 임종식 경북도교육감 “따뜻한 경북교육 향한 동행 완성해 나가겠다”</t>
+          <t>KCC글라스, 이웃사랑성금 1억 전달</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.29 17:17</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>"연내 짐싸라" 임대차 갈등…부산 반여자동차매매단지 계약연장 해결 실마리</t>
+          <t>전남방직 내 요양병원, 법원 강제집행 '거부'</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>실내체육시설 방역 점검</t>
+          <t>고려대, 李 아들 입시 자료 요청에 “보존기간 지나 파기했다”</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>문체부 2차관, 실내체육시설 방역 점검</t>
+          <t>ESG경영개발원, 창립총회 개최</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:14</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>실내체육시설에 방역물품 전달하는 오영우 2차관</t>
+          <t>하나금투, WM·디지털 조직 강화…젊은·여성인재 발탁</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>박근혜, 설까지 병원서 치료… "의료진 소견 따라 결정"</t>
+          <t>[인사] KB국민카드</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>한국산기대, '정왕권 평생학습 특화 프로그램' 운영</t>
+          <t>의협 재택치료 좌담회 개최…"의원급 치료 참여 필수적"</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>남부발전, 2045 탄소중립 달성 선포</t>
+          <t>태광산업·대한화섬 우수직원 시상식</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:13</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>설강화 예정대로 방영···법원, 상영금지 가처분 기각</t>
+          <t>육사교장과 환담하는 황기철 보훈처장</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">한국도로공사, 노사 합동 ESG 경영 선포  </t>
+          <t>이달의 6·25전쟁영웅 선정패 전달식</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.29 17:16</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>'설강화' 상영금지 가처분 신청 기각…"국민이 맹목적으로 수용 어려워"(종합)</t>
+          <t>이달의 6·25전쟁영웅 선정패 전달식</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>오늘의 인사 종합</t>
+          <t>육사 방문한 황기철 보훈처장</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>영주여고 영여 예술제 "우리가 기획한 축제, 끼 맘껏 발산했죠"</t>
+          <t>가든파이브 주차장서 천장 마감재 떨어져…차 4대 파손</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>'(사)연제이웃사랑회' 감염보호복 1,750벌 지정 기부…부산소방재난본부 감사 인사</t>
+          <t>오미크론 109명 확진 '최다'...입국제한 등 연장</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>삼바, 송도 산업시설 용지 우선협상대상자 선정</t>
+          <t>해외생산기지 줄줄이 가동···'K푸드 현지화' 올인</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>검찰, '50억 클럽' 박영수 한달만에 재차 소환</t>
+          <t>한미글로벌, '따뜻한동행' 17억원 기부</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.29 17:15</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>시민단체 "'광주시, 무등산 케이블카 설치 구상 철회해야"</t>
+          <t>광주공동체 밝힌 시민·단체 '명예의전당' 헌액</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>오영우 2차관, 실내체육시설에 방역물품 전달</t>
+          <t>SBS 하정연 · 한소희 기자, 한국여성기자상 수상</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>오영우 2차관  ‘실내체육시설 방역현장 점검’</t>
+          <t>대한항공, 아시아나 주식 취득일 연기…"결합심사 지연 때문"</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:11</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>실내체육시설 방역 점검하는 오영우 2차관</t>
+          <t>[Pick] 택배 왜 안 오나 했더니…분류 알바생이 밤마다 '슬쩍'</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>[1보] JTBC  '설강화' 상영금지 가처분 신청 기각…예정대로 방영</t>
+          <t>구례군-전남도-(주)나바그룹, 테마파크 337억 원 투자협약 체결</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>[속보] '50억 클럽 의혹' 박영수 전 특검 두번째 검찰 출석</t>
+          <t>검찰, '대장동 50억 클럽' 박영수 전 특검 2차 조사</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>델타 확산세 꺾인 지금, 오미크론 대응 의료체계 마련할 골든타임 [뉴스분석]</t>
+          <t>한수원, 지식나눔 멘토 '아인슈타인 클래스' 발대식 개최</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>영덕군,‘2022년 겨울방학 대학생 일자리 사업’ 참여자 선발</t>
+          <t>대구 명소 콘텐츠북 발간</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>검찰, '50억 클럽' 박영수 전 특검 재소환</t>
+          <t>전남도, 수산가공·유통발전 5개년 계획 마련…2026년까지 8천억 투입</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>포항시, '2022년 호미곶 등 해맞이 행사 취소'</t>
+          <t>울산 '최고 장인 명예의 전당'</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.29 17:14</t>
+          <t>2021.12.29 18:10</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>'설강화' 상영금지 가처분신청 기각…법원 "국민 맹목적 수용 안해"(종합)</t>
+          <t>[인사]기획재정부</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>도로교통공단, 사랑의 열매에 508만원 성금 기부</t>
+          <t>부산 대형 유통업체 지역 기여도 후퇴</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>불법 촬영 카메라 설치한 경찰관 파면…"직분 망각한 행위"</t>
+          <t>이준석, '성상납 의혹 제기' 강용석·김세의 고소</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>신한은행, 52~53세 본부장 대거 선임해 세대교체</t>
+          <t>경남 219명 발생…사망자 1명, 오미크론 3명 추가(종합)</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>대구교육청, 2022학년도 후기고 입학전형 합격자 발표</t>
+          <t>무려 70여차례…고의 교통사고 내 5억 보험금 타낸 20대 실형</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:09</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>광주교육청-학교비정규직연대, 단체협약 체결…휴가 확대</t>
+          <t>29일 울산서 39명 신규 확진…학교·목욕탕발 연쇄감염 6명 포함</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>지인과 짜고 수차례 고의 사고… 보험금 5억 5000만원 탄 20대</t>
+          <t>[인사] 경남 밀양시</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.29 17:13</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>'설강화' 예정대로 방영…상영금지 가처분 신청 기각</t>
+          <t>울산 산업단지 大개조에 4900억 투입한다</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:08</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>경찰관 잇단 감염…정용근 충북청장, 일선서 방역 점검</t>
+          <t>"푸들 19마리 입양 후 살해"…청원 20만명 동의에도 신상공개 불가?</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>전남병원간호사회, 화순전남대병원에 발전후원금 기탁</t>
+          <t>'제2 검단' 논란 부산 복산1구역 재개발 심의 보류</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>경남도, 서부경남 우주·활력·복합도시로 만든다</t>
+          <t>명예의전당 둘러보는 이용섭 광주시장</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>안양문화예술재단, 인권경영문 선포</t>
+          <t>광주시 명예의전당 헌액식</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>"코로나19 번질라" 충북 해넘이·해맞이 2년째 올스톱</t>
+          <t>묻지마 폭행하고 출동한 경찰에 소화기 던진 40대 징역 3년</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>'내부 비리 폭로' 최혁진 보훈공단 이사, 공단 관계자 고소</t>
+          <t>'병원이동 명령' 받은 중환자 210명 중 39명 사망</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:07</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>의정부을지대병원 2대 병원장에 김병식 교수 취임</t>
+          <t>中 유명 생리대에서 벌레·알 '득실득실'…경악</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:06</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>대전 찾은 우원식 “내년 대선, 향후 20년 정치지형 결정”</t>
+          <t>대구 미디어社 밝은사람들…제페토에 '메타버스 서당'</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:06</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>돈이 없어서...미혼남녀 10명 중 6명 “결혼은 사치”</t>
+          <t>불법 촬영 카메라 설치한 경찰관 파면…"직분 망각한 행위"</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>인천 지역화폐, 최우수기관상</t>
+          <t>한미글로벌, 사회복지법인 '따뜻한동행'에 17억 원 기부</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>[인사] 경기 용인시</t>
+          <t>대검 ‘올해의 수사관’… 경제·마약범죄 등 수사 활약</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>한국도로공사, 노사 합동 ESG 경영 선포</t>
+          <t>[중국어] 간식</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021.12.29 17:12</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>내년에 달라지는 경기도 행정제도와 정책은</t>
+          <t>김종갑 前 한전 사장, 31번째 전남 명예도민됐다</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CJ대한통운 택배노조 파업 이틀째…노원 등 일부 지역 택배발송 중단</t>
+          <t>최서원 “태블릿PC 돌려달라... 내것인지 확인해야”</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>이준석, '성접대 의혹' 제기한 강용석·김세의 명예훼손 고소</t>
+          <t>'경남 메가프로젝트' 속도 낸다</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>박화진 고용차관, 배달 라이더 고용보험 적용 내용 안내</t>
+          <t>감소세는 뚜렷해지지만, 거리 두기는 2주 더?</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:05</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>배달 라이더 고용보험 적용 안내하는 박화진 차관</t>
+          <t>'역사왜곡 논란' 설강화, 그대로 간다…방송금지신청 기각</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>'새해부터 퀵서비스·대리기사도 고용보험 가입 가능'</t>
+          <t>국립대구과학관, '꿈나무 과학관' 개관</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>새해부터 퀵서비스·대리운전기사도 고용보험 적용</t>
+          <t>오미크론 감염자 닷새간 제주 여행…"관광지 바이러스 전파 우려"</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>'내년부터 배달라이더도 고용보험 적용됩니다'</t>
+          <t>[부음] 정정숙씨 外</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>인천교통공사, 내달부터 지하철 7호선 부천 구간 운영</t>
+          <t>[인사] 산업은행</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>김해시 올해 ‘베스트 시정 10’ 선정</t>
+          <t>[fn이사람] "지원금 등 도와주기식으론 청년 취업난 해결못해"</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>남도학숙 내년 신규 입사생 모집</t>
+          <t>택배 왜 안오나 했더니, 밤마다 알바생이 '슬쩍'…2300만원 상당</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>[속보] 이준석 측, 성상납 의혹 제기 가세연 '허위사실 명예훼손' 고소</t>
+          <t>[포토] 코로나에도 기부행렬…더 올라간 사랑의 나눔온도</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>현대건설, 평택 서정동에 1107가구 규모 ‘스테이트 평택 더퍼스트’ 분양</t>
+          <t>인천항에 화물선 긴급투입…"물류대란 해소"</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:04</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>광주시, 에너지자립 마중물 에너지 전환기금 조성</t>
+          <t>[인사] 전남 화순군</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>대전, 산단 제한업종 조정 검토</t>
+          <t>코로나19 확산세 진정 국면..."거리두기 2주 연장할 듯"</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2021.12.29 17:11</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CJ대한통운 택배노조 파업 2일차 "이재현 회장 답하라"[뉴시스Pic]</t>
+          <t>“석방 환영” 朴사면 이틀 전, 병원 앞에  화환 300개 줄섰다</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>오세훈 '생존지원금 7700억' 최종 협의안…시의회 결정은</t>
+          <t>박범계 "언론·야당 통신기록 뒤졌다고 공수처 존폐 왈가왈부할 순 없어"</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>대학 정원 줄이면 '당근' 못줄이면 '채찍'…1조 투입해 감축유도(종합)</t>
+          <t>전남, 에너지·바이오 R&amp;D; 예산 대거 확보</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:03</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>경기도, 감사제보 처리 우수기관</t>
+          <t>박형준 시장, 지역 의료계와 코로나19 사태 협력강화 논의</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>오늘의 운세 (2021년 12월 30일 木)</t>
+          <t>[YTN 실시간뉴스] 마약 폭력배 실탄 10여 발로 간신히 체포</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>현행 거리두기 '2주 연장' 가닥…당정 "연장 필요성 공감"</t>
+          <t>광주시, 국·과장급 52명 전보인사…첫 여성 대변인 탄생</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2021.12.29 17:10</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>기업들 내년 1분기에만 40만명 채용…14년만에 최대 역대 최다 규모</t>
+          <t>[인사]기획재정부</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>동신대, 30일 정시 가·다군 원서접수 시작…1월3일까지</t>
+          <t>숭실대에 무슨 일이…내부 직원 징계위 회부에 뒤숭숭</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>강릉원주대 치위생학과 졸업예정자 전원, 국가고시 합격</t>
+          <t>‘4인 모임 제한’ 2주 연장 가능성… 오미크론 하루 109명 급증</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>[영상] 잔인한 도살·무허가 번식…여전한 불법 개 사육장 등 적발</t>
+          <t>국립대구과학관, 3층 규모 '꿈나무 과학관' 문 열어</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>노래방으로 위장하고 불법영업한 강남 유흥주점 적발</t>
+          <t>“군것질·피시방 참고 모아”… 삼형제 용돈 60만원 모아 쌀 기부</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>동신대, 30일 정시모집 가·다군 원서 접수 시작</t>
+          <t>[부고] 임찬규씨(청주시 흥덕구 교통행정팀장) 부친상</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>검찰, ‘50억 클럽 의혹’ 박영수 전 특검 재소환</t>
+          <t>내일부터 새해까지 ‘세밑 한파’ 이어져… 호남·충청에 많은 눈</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>한국일보 남보라·전혼잎 기자, 한국여성기자상 수상</t>
+          <t>[인사] 하나금융투자</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>[인사] 경북 예천군</t>
+          <t>검찰, '윤우진 수사 무마 의혹' 윤석열­ "혐의 없다" 불기소 처분</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>검찰, '50억클럽 의혹' 박영수 전 특검 재소환</t>
+          <t>[인사] 예천군</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:02</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>삼성, 中시안 반도체 사업장 가동률 낮춰…낸드 업황 영향주나(종합2보)</t>
+          <t>요기요, '허버허버' 사용금지 논란…"남혐·징용피해자 비하 표현"</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>[영상] "우리 딸, 엄마 왔어"…26년 만에 모녀 비대면 눈물 상봉</t>
+          <t>김대권 수성구청장 "수성구를 최고의 미래도시 브랜드로"</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2021.12.29 17:09</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>'자폐인 디자이너 사회활동 지원사업 협약식'</t>
+          <t>최서원 "태블릿PC 내 것인지 확인하고 싶다"</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>'자폐인 디자이너 사회활동 지원사업 협약식'</t>
+          <t>장욱현 영주시장 "시민복지와 편의증진 통해 지역발전 극대화"</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>[신년사] 도성훈 인천교육감 "미래교육 도약 준비하겠다"</t>
+          <t>"재택치료로 응급실 포화…병의원 역할 분담해야"(종합)</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>광주시민단체 “무등산 케이블카 설치 철회하라”</t>
+          <t>5급 공무원 민간경력자 채용 55명 합격</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>화순군, 행안부 정보공개 평가서 등급 올라 ‘최우수’</t>
+          <t>벌금형 확정받은 ‘버닝썬 경찰총장’ 윤규근, 정직 3개월 징계</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2021.12.29 17:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>광양제철소, '포스튜브 경진대회' 성과물 공유 활성화</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>이준석 측, 성상납 의혹 제기한 '가세연' 강용석 등 고소</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>고용보험 적용 내용 안내하는 고용부 차관</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>검찰, ‘통신 조회 논란’ 공수처장 고발 사건 수사 착수</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>[인사] 대전시</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>'오징어 게임'으로 소개하는 K컬처, '랜드 오브 스퀴드 게임' 국영문 출간</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>신한은행 월계동지점 폐쇄, 주민 힘으로 막았다</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>도산서원 방문한 윤석열 대선 후보</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>안동 도산서원 방문한 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>윤석열 후보, 안동 도산서원 방문</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>안동 도산서원 방문한 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>안동 도산서원 방문한 윤석열 후보</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>하버드 의대, 심장 공격하는 백혈구 증가 원인 밝혀냈다</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>낙후된 서부경남, 언제 미래 첨단도시로 변신할까</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>'설강화' 예정대로 방영…법원, 상영금지 가처분 기각</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>현행 거리두기 2주 연장 가닥…與, '선지원 후정산' 지원 검토</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>윤석열 후보,"문재인 정부의 탈원전 정책 절차와 정당성 잃었다"</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>“올해도 3명의 할머니가…” 보수단체 훼방 속 열린 2021년 마지막 수요시위</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>식약처 "내년부터 업소용 달걀도 포장해 유통해야"</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>'이재명 호남표 챙긴다'…강기정, 민주당 텃밭서 진두지휘</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>공주대 김광훈 교수, 해양수산과학기술대상 우수상</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>이낙연 전면 등판...싸늘한 호남 민심 되돌리기 나선다</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>광주광역시, 출생아 수 전국 유일 10개월 연속 증가</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>검찰, '대장동 50억 클럽 의혹' 박영수 전 특검 재소환</t>
-        </is>
-      </c>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>삼성SDI 자회사 STM은 ‘산재 은폐’…한화는 폭발사고로 5명 숨져</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>검찰, ‘50억원 클럽’ 의혹 박영수 전 특검 소환…로비 수사 재시동</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>'개관 18년 차' 대구 아양스포츠센터 소규모 리모델링…내년 상반기 2개월 휴관</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>"궁궐 청소서 시작한 한국 문화 알리기"...문화단체 '아름지기' 30일부터 부산 특별전</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>남부발전, 2045년 화력발전 무탄소 에너지 전환 선언</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>조선대 정시모집 1358명 선발…광역화 모집</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>[인사]목원대</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>의협 "격리해제자도 음성확인서를" 정부 "전세계 어디도 안 해"</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>[인사] 광주은행</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>[울산소식]울주군, 대한민국 좋은 정책대회서 최우수상 등</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>국방장관, 코로나19 전담 국군포천병원 현장점검</t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>[인사] 목원대</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>'더 크고 더 강한 광주'…광주대전환 특위 본격 가동</t>
-        </is>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>식약처 "내달부터 음식점·제과점용 달걀도 포장한 뒤 유통해야"</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>고의사고만 70여 차례…5억여원 보험금 타낸 20대 징역형</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>김종효 광주시 행정부시장, 코로나19 대시민 호소문 발표</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>김종효 광주시 행정부시장, 코로나19 대시민 호소문 발표</t>
-        </is>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>노래방서 13세 女가 성매매 거절하자…18세 실장 마이크로 폭행한 30대 ‘실형’</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>'노동자 500일 넘게 투쟁' 일본 산켄전기, 고용노동부 공문에도 무응답</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>[포토] 라인건설&amp; 라인장학재단, 무정초교 장학금 전달</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>최서원 "태블릿PC 돌려달라…내가 썼던 것인지 확인해야"</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>성인 10명 중 4명 "코로나19 때문에 체중 증가"</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>'전남교육 발전 공헌 5명' 제41회 전라남도교육상 수상</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>“더 어려운 이웃을 위해”…전주 중증장애인 부부 13년째 수급비 모아 기부</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>지구대 화장실에 몰카 설치한 경찰 파면</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>13세女 성매매 거절했다고…18세 실장 구타한 30대 실형</t>
-        </is>
-      </c>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>부산시, 지역 대학병원에 추가 치료병상 확보 요청</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>그린랩스, 매출 1000억 돌파…새해 디지털농업 해외진출 본격화</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>‘사회적 거리두기’ 2주 연장되나...자가 동선확인 앱 활용 검토(종합)</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>[인사] 울진군</t>
-        </is>
-      </c>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>종교시설 방문자 명부 작성하는 황희 장관</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>[인사]신한은행</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>[인사]경남 거제시</t>
-        </is>
-      </c>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>[교육소식]한밭대, 앤에스티와 산학협력 활성화 협약 등</t>
-        </is>
-      </c>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>카지노서 돈 잃은 50대...가스총 들고 강도 돌변</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>검찰, '수사 무마' 의혹 윤석열·윤대진 무혐의</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>종교시설 방역현장 의견 듣는 황희 장관</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>대구 동구, 안심배달음식점·우수 식품제조업체 선정</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>김종식 목포시장 "새해도 미래성장 동력 육성 총력"</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>김 총리 “코로나19 확산세 진정”…일상회복위 방역조치 연장 논의</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>사장이 쌍욕에 협박을 해도 ... '직장갑질' 검찰 송치는 단 1%, 왜?</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>'검찰총장 눈·귀' 대검 수정관실 폐지한다… 박범계 "수집·검증 분리"</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>안산시, 내년도 공유재산 584곳 사용료·대부료 감면</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>과기부, '유료방송업계 상생협의체' 개최 관련 브리핑 [TF사진관]</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>국민의힘 울산시당, 봉사·복지·시민소통위원회 발대식 개최</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>국내 최초 민간 과학로켓 발사, 시스템 정상 작동</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>부산교육청-공무원 노조, 4년만에 단체협약 체결</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>[오늘의 운세]  12월 30일 목요일(음력 11월 27일 壬子)</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>인권침해 논란 빚었던 대구 청소년쉼터…시 전수조사 후 1월까지 감독 나선다</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>안동시, 관광거점도시 육성사업 ‘기재부 적정성 재검토’완료 본격 추진</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>충북 오후 4시 58명 확진…교육·보육기관 감염 지속</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>김주하 AI 앵커와 함께하는 이 시각 주요 뉴스 - 12월 29일 오후 5시</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>황희 문화체육관광부 장관 ‘종교시설 방역현장 점검’</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>종교시설 방역상황에 대한 의견 나누는 황희 장관</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>경찰, 김건희 '허위 경력' 의혹 고발인 조사</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>부산구치소·부산혈액원, 헌혈문화 확산 협약</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>[속보]법원, JTBC 드라마 ‘설강화’ 방영금지 신청 소송 기각</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>수도권과 가까워진 천안...내년 3월 전철-시내버스 환승 할인</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>황희 장관, 종교시설 방역 상황 점검</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>2021.12.29 17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>황희 장관, 종암중앙교회 방문</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>[속보] '설강화' 상영금지 가처분 신청 기각…예정대로 방영</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>김천시, 영유아 4천100명에 보육 재난지원금…30만원씩 지급</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>황희 장관, 종교시설 방역 상황 점검</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>울주군 아파트서 화재…주민 6명 부상</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>경남대학교, '2021 대학기관평가' 인증 획득</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>울산 남구, 추억의 고교시절 특화거리 조성 추진</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:59</t>
+          <t>2021.12.29 18:01</t>
         </is>
       </c>
     </row>

--- a/backend/data/102.xlsx
+++ b/backend/data/102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2400 +448,1440 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>충북도민 45% "거주 시·군 일자리 충분하지 않다"</t>
+          <t>경찰, 북 피격 사망 공무원 명예훼손 고소 관련 해경청 압수수색</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>상습 허위 초과근무수당 챙긴 옥천군 공무원 중징계 요청</t>
+          <t>법원 "임종헌의 재판장 기피신청 다시 심리해야" 재판 중단될 듯</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 19:01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>서울시, 민생·방역예산 2300억원 추가 제안</t>
+          <t>‘편의점 근접 출점 제한’ 자율규약 3년 더 연장하기로</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 18:33</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Omicron cases on the rise along with critically ill</t>
+          <t>승리 "경찰총장이 뒤봐준다" 장본인…윤규근 총경 정직 3개월</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 18:59</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>"소아·청소년 백신패스 반대" 충북 민간단체 집회</t>
+          <t>서울시 예산협상 '막판 진통'…시의회 의총 내일로 연기(종합)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 18:32</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[로터리] 가족친화인증 마크 있나요</t>
+          <t>'버닝썬 경찰총장' 윤규근 총경, 정직 3개월</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>청주시 관광기념품 본정초콜릿, 보리직지글빵 등 7개 품목 선정</t>
+          <t>내년 1분기 채용계획 역대 최다…현실화 가능할까</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>대구 달서구 단독주택 지붕 수리 도중  60대 근로자 추락사</t>
+          <t>[인사] 동대문구</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[부산일보 선정 2021 국내·국제 10대 뉴스]  원점으로 돌아간 ‘코로나 터널’</t>
+          <t>'부산경남 429명' 29일 오후 6시까지 전국 3249명 확진</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 18:31</t>
+          <t>2021.12.29 18:58</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>박영수 전 특검 검찰 소환 연기…출석 일정 조율 중</t>
+          <t>오미크론 하루 109명 감염 ‘최다’… ‘n차 전파’ 본격화 조짐</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[인사]인천국제공항공사·신한은행·하나금융투자</t>
+          <t>공공기관 '직장 내 괴롭힘' 내년부터 징계… '수사 옴부즈맨'도 도입</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 18:57</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[내일 날씨] 서울 아침 -8도 다시 기온 '뚝'…곳곳에 눈·비도</t>
+          <t>이준석, ‘성상납 의혹 제기’ 가세연 강용석·김세의 고소</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 18:30</t>
+          <t>2021.12.29 18:56</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>버닝썬 '경찰총장' 윤규근 총경, 정직 3개월 처분</t>
+          <t>홍콩 민주매체 입장신문도 폐간…체포·자산동결에 백기(종합2보)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>영산강청 '대기오염물질 처리 위반' 등 사업장 8곳 적발</t>
+          <t>춘천서 영업 제한시간 어긴 유흥주점 2곳 적발</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>여수광양항만공사, 내년부터 광양항 자동화항만 구축사업 착수</t>
+          <t>'대장동' 박영수 前특검 재소환 불발…檢 "일정 다시 조율"(종합)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 18:29</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>재택치료관리 의료기관 병원 현장점검</t>
+          <t>[인사] 예천군</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:54</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>재택치료관리 의료기관 병원 현장점검</t>
+          <t>농식품부 "연말연시 대설·한파…농작물 피해 대비해야"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>최종문 강원경찰청장, 원주 단계지구대 격려 방문</t>
+          <t>대구시, 내년 ‘시민건강’에 크게 쓴다 … 예산 9752억원 최종 확정</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>최종문 강원경찰청장, 원주 단계지구대 격려 방문</t>
+          <t>동해안 공중화장실에 태아 출산후 유기한 20대 검거</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 18:28</t>
+          <t>2021.12.29 18:53</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>울산 중구, 성안동 식당 등 10곳 착한가게 단체 가입</t>
+          <t>춘천 산불 1㏊ 태우고 11시간 걸려 진화 성공</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>건보 보장률 70%로 올린다더니… 文케어 목표 사실상 실패</t>
+          <t>GH, 사회적경제 우수사례 공모전 대상 수상</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:52</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>부산구치소-부산혈액원, 헌혈문화 확산 업무협약</t>
+          <t>AI 등 디지털 환경에 적합한 지식재산 보호제도 마련</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>오규석 기장군수 "신형연구로 개발 신속추진 해달라"</t>
+          <t>SBS '골때녀' 조작에 징계하면 끝? "근본대책 세워야"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:51</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>지구대 화장실 '보디캠' 몰카 경찰관 파면...지구대장 인사 조치</t>
+          <t>통신3사 유료방송 매출점유율 90% 육박…방송시장 1.9% 성장</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.29 18:27</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>"학·석·박사 한꺼번에 딴다"…서울대, 통합과정 도입</t>
+          <t>檢, 윤우진 뇌물 9년만 기소…윤석열 수사무마 의혹 불기소</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:50</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>오후 6시까지 서울 1천110명 확진…어제보다 172명 적어</t>
+          <t>오후 6시 기준 서울 신규 확진 1110명… 전날 대비 172명↓</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>대법원 비정규직 미화원 해고 철회 촉구 기자회견</t>
+          <t>간호사 '태움' 사망 50일..."더딘 진상규명·땜질식 대책"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>춘천시, '출산장려금' 내년부터 200만 원 지급</t>
+          <t>신민아의 통큰 기부…"취약계층 아동 위해 써주세요" 3억 쾌척</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>경남중·고 동기모임 ‘금요포럼’ 취약계층에 8년째 연탄 기부</t>
+          <t>[속보] 오후 6시까지 전국서 3249명 확진…어제보다 460명 적어</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[인사] ㈜무학</t>
+          <t>[인사]보령시</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>부산지역 고교생 4명 ‘대한민국 인재상’ 수상</t>
+          <t>드루킹처럼 ‘매크로’ 돌려 초과 수당 챙긴 공무원</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:49</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>고법 “임종헌 ‘재판부 기피신청’ 기각 결정, 다시 따져라”</t>
+          <t>대전·충남,  소비심리 꽁꽁 얼어붙어</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[인사] 하나금융투자</t>
+          <t>진해신항 건설, 기재부 예타 최종 통과 … 2040년까지 12조원 투입</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>언론노조가 던진 대선 화두 '미디어와 산업 분리'</t>
+          <t>[인사]태안군</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>밤마다 집하장서 택배 슬쩍… 2300만원어치 훔친 20대 징역 1년</t>
+          <t>검찰, '50억 클럽' 박영수 전 특검 재소환 일정 조율</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.29 18:26</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>대우조선해양건설, 경주에 ‘엘크루 헤리파크’ 분양</t>
+          <t>고성 바닷가 화장실에 갓 출산한 태아 유기한 20대 여성 검거</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>오후 6시 전국 최소 3302명 확진…전날보다 469명 감소</t>
+          <t>강원도 바닷가 화장실서 신생아 유기 20대, 경찰에 검거</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>최서원 "태블릿PC 돌려달라...내가 썼던 것인지 확인해야"</t>
+          <t>"야근수당 160만원 꿀꺽" 매크로 돌려 불법수당 챙긴 공무원 적발</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:48</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>마약에 취한 조직폭력배 도주...실탄 11발 발사해 체포</t>
+          <t>중기중앙회, 광주 북구의회·광산구의회 감사패 전달</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>해맞이 명소 통제 제각각...'풍선효과' 우려</t>
+          <t>역사왜곡 논란 '설강화' 상영금지 가처분 신청 기각</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>영주사랑 상품권, 설명절 앞두고 구매 한도 월 100만원 상향</t>
+          <t>[부고] 이승민(영진전문대·영진사이버대 전 이사장)씨 별세 외</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>"믿었는데"···'유명 女배우 운영' 여수 김치업체 檢송치</t>
+          <t>‘버닝썬 경찰총장’ 윤규근 총경, 정직 3개월 징계</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:47</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>전주 노송동 얼굴없는 천사의 성금상자 전달 교란작전명은…'교회 언저리'</t>
+          <t>전남서 잇단 산불…"부주의 조심해야"(종합)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.29 18:25</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>서울 관악구 아파트 화재‥3명 연기흡입</t>
+          <t>‘버닝썬 경찰총장’ 윤규근 총경, 정직 3개월 징계</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:46</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[인사] 광주시</t>
+          <t>거리두기 2주 연장할 듯...극장은 밤 10시 영업제한 완화 검토</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>"이웃 돕고 싶어요" 인천 태권도장 원생 100여명, 라면 640봉지 기부</t>
+          <t>경남 남해 야산서 산불, 3시간여만에 진화 … 0.5㏊ 소실, 인명피해 없어</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>오후 6시 서울 확진자 1110명…전날보다 172명 감소</t>
+          <t>춘천 코로나19 확진자 2명(2,011~2,012번) 추가 발생</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>이재명 아들 의혹 '묻지마 폭로'…與팩트체크에 野 8시간만 철회(종합2보)</t>
+          <t>[인사] 기획재정부 외</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:45</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>부산항만공사 노사, 18년연속 무분규 임단협 체결</t>
+          <t>오후 6시까지 전국서 3천249명 확진…어제보다 460명 적어</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>숲공원된 쓰레기매립장, 24만 부산시민 위로했다</t>
+          <t>서울 관악구 아파트서 불…주민 3명, 연기 마셔 병원 이송</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[단독] “미접종자 혈액 정부가 관리한다” 괴담에 헌혈 줄어들라</t>
+          <t>강서구-서울시교육청, 2021 미래교육 협약식</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>‘버닝썬 경찰총장’ 윤규근 총경, 정직 3개월 징계</t>
+          <t>삼척 코로나19 확진자 2명 (187~188번) 추가 발생…29일 하루 총 3명</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[포토뉴스] 전국한우협회-산림청, 탄소중립 협력 맞손</t>
+          <t>'버닝썬 경찰총장' 정직 3개월 징계 처분</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:44</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[부고] 이용우씨 별세 外</t>
+          <t>'24시간 영업' 인천 카페 본점·직영점 압수수색</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[인사] 울산시 중구</t>
+          <t>'24시간 영업' 인천 카페 본점·직영점 압수수색</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.29 18:24</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>'팀워크는 우리가 최고' 대구 서부소방, 탑-팀 선발</t>
+          <t>'24시간 영업' 인천 카페 본점·직영점 압수수색</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>울산 47명 신규 확진…중구 목욕탕 관련 6명 추가(종합)</t>
+          <t>충남 오미크론 감염 2명 추가 누적 5명…영국 필리핀 입국자</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>고성 바닷가 화장실에 갓 출산한 영아 유기한 20대 붙잡혀</t>
+          <t>'24시간 영업' 인천 카페 본점·직영점 압수수색</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>누리호 '미완의 성공' 원인은…"3단 산화제 탱크 이상"</t>
+          <t>'24시간 영업' 인천 카페 본점·직영점 압수수색</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>매출만 올리고 공익사업 외면… 대형유통사 부산 지역기여 '낙제점'</t>
+          <t>[광주소식] 효천문화복합센터 조성 본격화 등</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BNK금융, 착한 임대인 운동 연장… ESG 경영 실천</t>
+          <t>법무부, 아동학대 대응 인력 18명에 장관 표창</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>부산시교육청, 예술학교 2곳 설립… 창작역량 강화한다</t>
+          <t>이준석, '성접대 의혹 제기' 강용석·김세의 고소</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>부산市, 내년부터 무료법률상담실 운영… 시민권익 보호</t>
+          <t>[단독] 부산백병원, 해운대 이전 추진…의료 '동서 차별' 부추겨</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[인사] 산업은행 ; DGB금융그룹 ; 신한카드 등</t>
+          <t>'믿고 먹었는데..' 탤런트 운영 김치 업체 '식품위생법 위반'</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[인사]청도군</t>
+          <t>"화환으로 산성 이룰 것"...박근혜 석방 앞두고 삼성병원 앞에 화환 행렬</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:43</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>내일부터 새해까지 매서운 한파…충남·전북에 눈</t>
+          <t>[인사] 신한금융지주</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.29 18:23</t>
+          <t>2021.12.29 18:42</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>경남 177명 추가…미국·탄자니아서 입국 3명 오미크론 확진</t>
+          <t>1월 3일부터 방역패스 유효기간제 도입…"7월 6일 이전 접종자 3차접종 받아야"</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>시흥시, 지역사랑 상품권 '우수' 지자체 선정</t>
+          <t>왜곡된 역사를 진실로…여순항쟁역사회전 개최</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[디라이브] “항공권 비싸질 수 있다…일부 노선 인상폭 제한할 듯”</t>
+          <t>전국 257개 대학 정원 감축…1조 투입 학제개편 유도</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>"청주시 산하 위원회 15％, 지난해 회의 한 번도 열지 않아"</t>
+          <t>김주하 AI가 전하는 12월 29일 종합뉴스 예고</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:41</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[인사] 전남 영암군</t>
+          <t>내일부터 정시모집 원서접수…교차지원 등 변수</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[포토뉴스] 축산과 산림의 기후위기 공동대응‘숲속 한우농장 만들기’업무협약</t>
+          <t>서울시 예산 막판 진통…서울시 민생방역예산 2000억 규모 민생·방역예산 추가제안</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>"백혈병 친구를 도와주세요"…청주 용성초 학생들 친구돕기 모금</t>
+          <t>경북문화관광공사 "어려운 이웃과 따뜻한 사랑 나눠요"</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:38</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>이준석, 가세연 고소...강용석 “동영상 깐다”</t>
+          <t>고성 바닷가 화장실에 갓난아기 유기한 20대 붙잡혀</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.29 18:22</t>
+          <t>2021.12.29 18:38</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>광주시, 출생아 수 전국 유일 10개월 연속 증가</t>
+          <t>경남교육청, 학교운영위 ‘찾아가는 연수’ 진행</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[인사]수협중앙회</t>
+          <t>시의회, 오세훈 예산 협의안에 의견 분분…”자체 예산안 검토”</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[인사]수협중앙회</t>
+          <t>암환자 10명 중 7명은 진단 5년 뒤에도 생존</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[인사]DGB금융그룹</t>
+          <t>한수원 '2021 Partners' Day' 개최…동반성장 성과 함께 나누다</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.29 18:21</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>서울 오후 6시까지 1110명 확진…어제보다 171명 적어</t>
+          <t>경주엑스포대공원 솔거미술관 '야외 조각 전시' 개최</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[인사] 인천항만공사</t>
+          <t>"10억 적자로 24시간 영업" 인천 카페 2곳 압수수색</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:37</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>광주·전남서 '오미크론' 확진자 연쇄감염 등 123명 확진</t>
+          <t>고의 사고 수십 차례 내고 보험금 수억 타낸 20대 징역형</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>40년만에 오를까…방통위, KBS 수신료 인상안 국회 제출</t>
+          <t>올해도 다녀간 천사...22년째 계속되는 선한 의지</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>부산에 대학동물병원 설립 속도... 동명대, 사업 자문위원 13명 위촉</t>
+          <t>'버닝썬 경찰총장' 윤규근 총경, 정직 3개월 처분</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>조선대학교병원 제24대 병원장 김경종 외과 교수 '취임'</t>
+          <t>'영아 시신' 보도 당일에도 평소와 똑같이 생활...경찰 '사체유기' 혐의 적용 방침</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>한양대, 미래의료 연구할 '생명과학기술원' 개원</t>
+          <t>광주시, 국·과장급 52명 전보인사…첫 여성대변인 탄생</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.29 18:20</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>제주 평화로에 말 출몰 소동...교통 체증 빚어져</t>
+          <t>달리던 시내버스 멈추고 불길 잡은 운전기사</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>이준석, '성 상납' 의혹 제기한 가로세로연구소 고소</t>
+          <t>민주당 문화강국 충북위원회 출범…충북 예술인 513명 동참</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:36</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>광주시, 국·과장 48명 전보…첫 여성 대변인 탄생</t>
+          <t>춘천 산불 1㏊ 태우고 11시간만에 진화…헬기 회항(종합)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:35</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>광주 중학교 야구부 등 5명 동급생 추행·폭행···검찰 송치</t>
+          <t>오후 6시 3332명 확진…전날 동시간 대비 393명↓(종합)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:35</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[부고]최재영(영진전문대 총장)씨 모친상</t>
+          <t>충북서 학교·보육시설 등 58명 확진…누적 1만 1402번째</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.29 18:19</t>
+          <t>2021.12.29 18:35</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>은평구청장 "신분당선 서북부 연장, 예타 선정 환영"</t>
+          <t>6살 아동 폭행·방치...어린이집 교사 구속</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:34</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[인사] 하나금융투자</t>
+          <t>[인사]광주시</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.29 18:18</t>
+          <t>2021.12.29 18:34</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[속보] 오후 6시 3332명…전날 동시간 대비 393명↓</t>
+          <t>경기지역 교육행정직 "학교업무 재구조화 철회" 연가투쟁</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:33</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[인사] 광주광역시</t>
+          <t>충북도민 45% "거주 시·군 일자리 충분하지 않다"</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:33</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>박범계 "김건희 수사 가이드라인 아냐...총장 지휘권 복원 검토"</t>
+          <t>상습 허위 초과근무수당 챙긴 옥천군 공무원 중징계 요청</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:33</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>창원특례시 한발 더…소방안전교부세 50% 증가</t>
+          <t>서울시, 민생·방역예산 2300억원 추가 제안</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:33</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[인사] 울산시 중구</t>
+          <t>Omicron cases on the rise along with critically ill</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:32</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>"북항 재개발·2030세계박람회, 새로운 부산 위한 큰걸음 될것"</t>
+          <t>"소아·청소년 백신패스 반대" 충북 민간단체 집회</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:32</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>‘버닝썬 경찰총장’ 윤규근, 파면 아닌 정직 3개월 징계</t>
+          <t>[로터리] 가족친화인증 마크 있나요</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[인사]경상남도 4급 전보</t>
+          <t>청주시 관광기념품 본정초콜릿, 보리직지글빵 등 7개 품목 선정</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>울산시, 내년 1월 5일 희망지원금 10만 원 지급</t>
+          <t>대구 달서구 단독주택 지붕 수리 도중  60대 근로자 추락사</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>서울대 신입생 7년이면 박사 딴다</t>
+          <t>[부산일보 선정 2021 국내·국제 10대 뉴스]  원점으로 돌아간 ‘코로나 터널’</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:31</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>[포토] 전국한우협회-산림청, ‘숲속 한우 농장 만들기’ 업무협약 체결</t>
+          <t>박영수 전 특검 검찰 소환 연기…출석 일정 조율 중</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.29 18:17</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>[인사]한국산업인력공단</t>
+          <t>[인사]인천국제공항공사·신한은행·하나금융투자</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>[인사] 경남 김해시</t>
+          <t>[내일 날씨] 서울 아침 -8도 다시 기온 '뚝'…곳곳에 눈·비도</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:30</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>[인사] 구리시</t>
+          <t>버닝썬 '경찰총장' 윤규근 총경, 정직 3개월 처분</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>울산 47명 신규 감염…목욕탕·학교 연쇄감염 지속(종합)</t>
+          <t>6살 원아 폭행하고 정서적 학대한 여주 어린이집 교사 구속</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>"연말 거리의 '빨간 냄비' 1만개 기부했죠"</t>
+          <t>영산강청 '대기오염물질 처리 위반' 등 사업장 8곳 적발</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>전통주까지 파는 골든블루···"종합주류회사 도약"</t>
+          <t>여수광양항만공사, 내년부터 광양항 자동화항만 구축사업 착수</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.29 18:16</t>
+          <t>2021.12.29 18:29</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>대한항공 인천~선양 내달 중순까지 운항금지</t>
+          <t>재택치료관리 의료기관 병원 현장점검</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>하나금투, 디지털·WM부문 강화 조직개편…여성·젊은 인재 발탁</t>
+          <t>재택치료관리 의료기관 병원 현장점검</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>이준석 측, 성상납 의혹 제기한 `가세연` 강용석 김세의 고소</t>
+          <t>최종문 강원경찰청장, 원주 단계지구대 격려 방문</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>사회복지교육協 회장에 이봉주 교수</t>
+          <t>최종문 강원경찰청장, 원주 단계지구대 격려 방문</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.29 18:15</t>
+          <t>2021.12.29 18:28</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>광주시, 국·과장급 52명 전보 인사 단행…여성 첫 대변인</t>
+          <t>울산 중구, 성안동 식당 등 10곳 착한가게 단체 가입</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>軍에서 오미크론 변이 확진자 3명 발생...추가접종 가속화</t>
+          <t>건보 보장률 70%로 올린다더니… 文케어 목표 사실상 실패</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>코로나 변이 오미크론 신규확진 '최다'…해외 유입 관리강화 추가 연장</t>
+          <t>부산구치소-부산혈액원, 헌혈문화 확산 업무협약</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>KCC글라스, 이웃사랑성금 1억 전달</t>
+          <t>오규석 기장군수 "신형연구로 개발 신속추진 해달라"</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>전남방직 내 요양병원, 법원 강제집행 '거부'</t>
+          <t>지구대 화장실 '보디캠' 몰카 경찰관 파면...지구대장 인사 조치</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:27</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>고려대, 李 아들 입시 자료 요청에 “보존기간 지나 파기했다”</t>
+          <t>"학·석·박사 한꺼번에 딴다"…서울대, 통합과정 도입</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ESG경영개발원, 창립총회 개최</t>
+          <t>오후 6시까지 서울 1천110명 확진…어제보다 172명 적어</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.29 18:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>하나금투, WM·디지털 조직 강화…젊은·여성인재 발탁</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>[인사] KB국민카드</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>의협 재택치료 좌담회 개최…"의원급 치료 참여 필수적"</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>태광산업·대한화섬 우수직원 시상식</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>육사교장과 환담하는 황기철 보훈처장</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>이달의 6·25전쟁영웅 선정패 전달식</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>이달의 6·25전쟁영웅 선정패 전달식</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>육사 방문한 황기철 보훈처장</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>가든파이브 주차장서 천장 마감재 떨어져…차 4대 파손</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>오미크론 109명 확진 '최다'...입국제한 등 연장</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>해외생산기지 줄줄이 가동···'K푸드 현지화' 올인</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>한미글로벌, '따뜻한동행' 17억원 기부</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>광주공동체 밝힌 시민·단체 '명예의전당' 헌액</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>SBS 하정연 · 한소희 기자, 한국여성기자상 수상</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>대한항공, 아시아나 주식 취득일 연기…"결합심사 지연 때문"</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>[Pick] 택배 왜 안 오나 했더니…분류 알바생이 밤마다 '슬쩍'</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>구례군-전남도-(주)나바그룹, 테마파크 337억 원 투자협약 체결</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>검찰, '대장동 50억 클럽' 박영수 전 특검 2차 조사</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>한수원, 지식나눔 멘토 '아인슈타인 클래스' 발대식 개최</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>대구 명소 콘텐츠북 발간</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>전남도, 수산가공·유통발전 5개년 계획 마련…2026년까지 8천억 투입</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>울산 '최고 장인 명예의 전당'</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>[인사]기획재정부</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>부산 대형 유통업체 지역 기여도 후퇴</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>이준석, '성상납 의혹 제기' 강용석·김세의 고소</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>경남 219명 발생…사망자 1명, 오미크론 3명 추가(종합)</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>무려 70여차례…고의 교통사고 내 5억 보험금 타낸 20대 실형</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>29일 울산서 39명 신규 확진…학교·목욕탕발 연쇄감염 6명 포함</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>[인사] 경남 밀양시</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>울산 산업단지 大개조에 4900억 투입한다</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>"푸들 19마리 입양 후 살해"…청원 20만명 동의에도 신상공개 불가?</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>'제2 검단' 논란 부산 복산1구역 재개발 심의 보류</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>명예의전당 둘러보는 이용섭 광주시장</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>광주시 명예의전당 헌액식</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>묻지마 폭행하고 출동한 경찰에 소화기 던진 40대 징역 3년</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>'병원이동 명령' 받은 중환자 210명 중 39명 사망</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>中 유명 생리대에서 벌레·알 '득실득실'…경악</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>대구 미디어社 밝은사람들…제페토에 '메타버스 서당'</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>불법 촬영 카메라 설치한 경찰관 파면…"직분 망각한 행위"</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>한미글로벌, 사회복지법인 '따뜻한동행'에 17억 원 기부</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>대검 ‘올해의 수사관’… 경제·마약범죄 등 수사 활약</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>[중국어] 간식</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>김종갑 前 한전 사장, 31번째 전남 명예도민됐다</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>최서원 “태블릿PC 돌려달라... 내것인지 확인해야”</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>'경남 메가프로젝트' 속도 낸다</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>감소세는 뚜렷해지지만, 거리 두기는 2주 더?</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>'역사왜곡 논란' 설강화, 그대로 간다…방송금지신청 기각</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>국립대구과학관, '꿈나무 과학관' 개관</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>오미크론 감염자 닷새간 제주 여행…"관광지 바이러스 전파 우려"</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>[부음] 정정숙씨 外</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>[인사] 산업은행</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>[fn이사람] "지원금 등 도와주기식으론 청년 취업난 해결못해"</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>택배 왜 안오나 했더니, 밤마다 알바생이 '슬쩍'…2300만원 상당</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>[포토] 코로나에도 기부행렬…더 올라간 사랑의 나눔온도</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>인천항에 화물선 긴급투입…"물류대란 해소"</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>[인사] 전남 화순군</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>코로나19 확산세 진정 국면..."거리두기 2주 연장할 듯"</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>“석방 환영” 朴사면 이틀 전, 병원 앞에  화환 300개 줄섰다</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>박범계 "언론·야당 통신기록 뒤졌다고 공수처 존폐 왈가왈부할 순 없어"</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>전남, 에너지·바이오 R&amp;D; 예산 대거 확보</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>박형준 시장, 지역 의료계와 코로나19 사태 협력강화 논의</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>[YTN 실시간뉴스] 마약 폭력배 실탄 10여 발로 간신히 체포</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>광주시, 국·과장급 52명 전보인사…첫 여성 대변인 탄생</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>[인사]기획재정부</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>숭실대에 무슨 일이…내부 직원 징계위 회부에 뒤숭숭</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>‘4인 모임 제한’ 2주 연장 가능성… 오미크론 하루 109명 급증</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>국립대구과학관, 3층 규모 '꿈나무 과학관' 문 열어</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>“군것질·피시방 참고 모아”… 삼형제 용돈 60만원 모아 쌀 기부</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>[부고] 임찬규씨(청주시 흥덕구 교통행정팀장) 부친상</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>내일부터 새해까지 ‘세밑 한파’ 이어져… 호남·충청에 많은 눈</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>[인사] 하나금융투자</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>검찰, '윤우진 수사 무마 의혹' 윤석열­ "혐의 없다" 불기소 처분</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>[인사] 예천군</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>요기요, '허버허버' 사용금지 논란…"남혐·징용피해자 비하 표현"</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>김대권 수성구청장 "수성구를 최고의 미래도시 브랜드로"</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>최서원 "태블릿PC 내 것인지 확인하고 싶다"</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>장욱현 영주시장 "시민복지와 편의증진 통해 지역발전 극대화"</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>"재택치료로 응급실 포화…병의원 역할 분담해야"(종합)</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>5급 공무원 민간경력자 채용 55명 합격</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>벌금형 확정받은 ‘버닝썬 경찰총장’ 윤규근, 정직 3개월 징계</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:01</t>
+          <t>2021.12.29 18:26</t>
         </is>
       </c>
     </row>

--- a/backend/data/102.xlsx
+++ b/backend/data/102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,240 +448,3840 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>65세 이상 연금수급률 47%… 남성이 여성보다 1.7배 높아</t>
+          <t>청소년 방역패스 적용 연기될 듯</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.29 23:03</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>“3차도 아직인데 4차 접종 언급… 끝 안보여” 국민 스트레스 어떡하나</t>
+          <t>'헬멧 착용 의무화' 7개월만에…전동킥보드 멈췄다</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.29 23:02</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>광진구, 노인요양시설 방역 강화...전담반 신설 등 방역시스템 구축</t>
+          <t>檢, 김정태 하나금융 회장 소환 조사</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.29 23:00</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>인천 목재 공장서 불…2시간 30분만에 완전 진화(종합)</t>
+          <t>[인사] 장흥군</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.29 22:58</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>“학생 충원 못 하는 대학은 정원 줄여야” 교육부 지원 조건으로 제시</t>
+          <t>[인사]대한무역투자진흥공사</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">창원시, 시민과 함께하는 동전 진입도로 이용 편의성 점검  </t>
+          <t>학부모 반발에…시간끌다 결국 연기</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.29 22:57</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>후원금 4억 털린뒤 "잘 쓰고있다"…'조국 수호' 단체 대표, 檢송치</t>
+          <t>청주시 신청사 건립 중앙투자심사위 통과…규모는 축소</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.29 22:56</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>인천 목재 공장서 불… "인명피해 없어"</t>
+          <t>경주시 4~8급 149명 승진인사 단행</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.29 22:56</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>울산 오늘 낮 최고 11.3도…내일 -1~5도</t>
+          <t>영남이공대 '소콘'계열, IT 실무 인재 양성…"일본 취업 135명"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.29 22:55</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>민노총 CJ택배노조 1400여명 파업... CJ “다른 택배 이용해 달라”</t>
+          <t>광주시, 내년 6월까지 상생카드 10% 할인 연장</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.29 22:54</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>24시간 영업 카페 ‘압수수색’...방문손님도 처벌 대상</t>
+          <t>전북 완주군, 소상공인 안심콜 출입관리 서비스</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.29 22:50</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8천억 투자유치·해외진출…서울시 창업지원 '결실'</t>
+          <t>경기 '민간주도형 창업지원' 성과···참여기업 절반 이상 후속 투자유치</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.29 22:49</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[인사] 울산시 중구</t>
+          <t>청소년 방역패스 내년 3월 도입 가닥</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.29 22:47</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>식당은 썰렁, 백화점은 북적? 거리두기 강화 후 이동량 되레 늘었다</t>
+          <t>경기관광공사 사장 후보 사퇴에 '1년째 사령탑 부재'…행정공백 우려</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>후원금 논란 '조국 수호' 집회 단체 대표 송치</t>
+          <t>귀갓길 여성 끌고가 ‘묻지마 폭행’… “화풀이 대상”</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.29 22:45</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>“바닷가 화장실서 출산 후 유기” 20대女 붙잡혀…DNA 일치</t>
+          <t>'고양이가 범인' 서울 인덕션 화재 3년간 107건</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.29 22:42</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>유통기한 2년 지난 식자재 사용한 예식장 뷔페 적발</t>
+          <t>은혜갚는 스타트업…지역 상생에 팔 걷었다</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.29 22:42</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>인천 목재 공장서 불…진화작업 나선 소방관들</t>
+          <t>부경대의 새 마스코트 ‘백경이와 뿌공이’</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.29 22:41</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>개혁국민운동본부 대표 기부금품법 위반 혐의로 검찰 송치</t>
+          <t>작년 울산 기업활동 지표 전반적 악화…"코로나 직격탄 영향"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.29 22:39</t>
+          <t>2021.12.30 17:32</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>인천 목재 공장서 불…대응 1단계 발령</t>
+          <t>울산교육청, 전국 교육청 최초 윤리적 소비 '공정무역기관' 인증</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.29 22:36</t>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>계명문화대, 국가직 지역인재 공무원 시험 2명 합격</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>전주시, 전통한지 생산시설 준공</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>전북 김제시, 여성청소년 위생용품 지원</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>한상혁 방통위원장, 불교방송 코로나19 방역 점검</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[인사] 금융감독원</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>광양항 묘도수도, 선박사고 위험 확 줄어든다</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>경동나비엔 손연호·김종욱 각자대표 체제로</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>이환주 남원시장 ‘2021 자랑스러운 한국인 대상’수상</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>[녹색] 외국인 입맛 잡는 토마토 고추장...청년 농업인이 희망</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>대전 국공립 유치원 방과 후 과정 전담사 파업…100여명 참여</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>한국기술교육대, '미래유망분야 고졸인력 양성사업' 설명회 열어</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>[날씨]충청·경북·전북 대설특보…내일 아침 최저기온 영하 15도</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>우동꽃오아시스 문해교육 ‘따스함’ 20차시 성료</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>충남 유통 양식 수산물 2건, 동물용의약품 잔류 허용기준 초과</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>경찰 신변보호, 범죄피해자 안전조치로 개편… 테이저건 훈련 정례화</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>울산 오미크론 감염자 5명 추가</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>광주시교육청, 사립유치원 전수감사</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>규제특구·스마트공장 '양날개'···지역경제 견인차로 뜬 경북TP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>대전기독교복지관 '사랑의 천사나무' 사업으로 소외계층에 선물</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>[인사]모아저축은행</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>가세연, 이준석 서울중앙지검에 고발…1380만원 금품 수수, 성접대 혐의</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>조응천 의원 "남양주시 전선지중화 사업 확정"</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2차 접종 맞은 16세 사망 신고…"가장 어린 나이"</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>부산 북구, 보건복지부 자활사업 분야 ’우수 지자체‘ 선정</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>바이오젠 인수 '부인’한 삼바…‘바이오시밀러 외도’ 결론은 미지수로</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>"골목상권 살리자" 특화카드·캐시백 쏟아진다</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BRIC 선정 '한국을 빛낸 사람들'에 의정부성모 임성민 교수</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>지역사회 쉼터 '부산 감천 나누리파크' 개장</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>군산 미군기지서 집단감염… 전북지역 1일 확진자 230명</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>울산 동구 건축주택과, 우수부서 포상금으로 '라면 기부'</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>대법, '유학생 사망' 음주운전자 유죄 파기…윤창호법 위헌 영향</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>대한민국 우수 교육시설에 세종 해밀학교 대상</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>정환만 세무사, 불우이웃에 12년간 1억원 이상 기부</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>수수료 현실화 하는 쿠팡이츠...건당 1,000원 프로모션 종료</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>[인사] 금융감독원</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>'쾅' 굉음 내며 5층 벽 뚫고 추락한 택시…운전자 사망·8명 사상[영상]</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>[영상] 부산 대형마트 5층 벽 뚫고 추락한 택시…주변 아수라장</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>한밤중 화재, 원인은 ‘고양이’…“집 비울땐 전기레인지 조심하세요”</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>제주항서 화상 입은 50대 남성 ‘긴급 이송’</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>[인사] 전남 장흥군</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>인덕션 ‘꾹’…고양이가 낸 화재, 서울서 3년 간 107건</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>김형기 전북교육청 행정과장 ‘근정포상’…박태규 사무관 총리상</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>‘역사왜곡 논란’ 설강화 측 “근거 없는 비방과 날조된 사실에 강경 대응”</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>남도기자협회, 장성농업기술센터 조재형 농촌지도사에 ‘감사패’ 전달</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>KS수학학원, 7년째 신애보육원생들에게 따뜻한 선물 전달</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>'알고리즘 신'의 간택...2021년은 어땠나</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>"자생식물을 도시 정원식물로" 국립세종수목원, 보급사업 추진</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>[인사] SRB미디어그룹</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>'대만인 사망' 음주운전 파기환송…이유는 '윤창호법 위헌'</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>“어데갔노 손실보장” 경남소상공인 생존권 보장 결의대회</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>[엠빅뉴스] 실탄 11발을 쐈지만 마약에 취한 조폭 부부는...</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>[인사종합] 과학기술정보통신부 외</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>의료진과 기념 촬영하는 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>의왕역 전동차 안에서 ‘묻지마 칼부림’… 시민 1명 부상</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>손님 에르메스 코트에 음식 엎어… 알바생 800만원 날릴 판</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>“가세연 여성혐오와 비하, 도 넘었다”…유튜브에 폐쇄 요구</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>뉴타운 무산된 군포 산본동 2개 지구 재개발정비구역 지정</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>[인사] 충북도청</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>인천시의료원 의료진 고충 듣는 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>[천안소식] 박상돈 천안시장 명예 해병 됐다</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>인천시의료원 음압병동 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>인천시의료원 음압병동 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>수의계 "공중방역수의사 증원 필요"…추가합격자 수 공개</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>인천시의료원 현황 청취하는 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>인천시의료원 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>울산대병원, 보건복지부 응급의료기관 평가 A등급 획득</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>[인사] 경기 여주시</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>'청소년 방역패스' 조정안 내일 발표…한달 연기 검토</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>내년부터 국내 의료기기 베트남 수출 빨라진다</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>중증률 낮은 오미크론 조만간 우세종…거리두기 대폭 완화될 듯</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>삼육부산병원과 함께하는 따뜻한 겨울나기</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>강명원·장현덕 홍보협력계장 등 87명 총경 승진</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>'조국 동생' 조권씨, 웅동학원 채용비리로 징역 3년형 확정</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>기댈 곳 없는 학폭 피해자…보호 대책 유명무실</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>경남 219명 확진·2명 사망…어제 누계 197명(종합2보)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>부당 지시 상사와 언쟁 후 뇌출혈로 쓰러져 사망… "업무상 재해"</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>구리시민이 선정한 2021년 시를 빛낸 뉴스는 ‘GH 유치 확정’</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>94년 만에 복수 철도망…중부내륙철 1단계 개통</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>층간흡연도 욕먹는데 아파트 엘베 안에서 버젓이…아파트 측 '흡연자 3명 사진' 공개</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>[독자와 함께]6·25 참전해 손가락 절단됐는데 '증거 불충분'으로 전상군경 등록 기각</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>검찰, 김정태 하나금융 회장 소환…곽상도 50억 의혹 조사</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>도쿄올림픽 3관왕 광주여대 안산, 보신각 '제야의 종' 타종</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>경남도·진주시·지역대학 협력, LH 신규채용 이끌어</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>고양시, '2035년 고양도시기본계획' 경기도 최종 승인</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>서구, 행안부 ‘주민참여예산제도 운영평가’서 우수 지자체 선정</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>“여친과 헤어져서 화풀이”…귀가 여성 주차장 끌고 가 폭행</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>[인사] 과학기술정보통신부 / 기상청 / 관세청 등</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>경남 진주 폐자재 처리업체 화재…1시간 20분만 완진</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>광주 남구 "도시경쟁력 강화할 것"</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>폐교에 친환경 녹색건축물 조성… 환경교육시설 거점시설로 운영.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>혐오 시설서 체육시설로 탈바꿈한 양산신도시 남부유수지, 문화체육센터로 또 변신</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>[부음] 백한기씨 별세</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>한국지역난방공사, 한국가스공사와 천연가스 개별요금제 매매계약 체결</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>[인사] 대전 대덕구</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>'경찰의 꽃' 총경 승진…장현덕 · 이기범 등 87명</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>직장 상사와 다툰 직후 쓰러져 사망‥법원 "업무상 재해"</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>봉화 산불 0.5㏊ 태우고 2시간 만에 진화(종합)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>[게시판] 성신여대-KIA타이거즈, 과학 야구 시스템 구축 협력</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>포스코-경동나비엔 따뜻한 동행…취약계층 보일러 무상 교체</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>부산 대형마트 5층 주차장서 택시 추락…8명 사상</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>[동정] 권덕철 복지장관, 서울아산병원 의료진과 간담회</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>[인사] 전남 장흥군</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>[인사] 담양군</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>아이와 임산부 위한 '강동아이맘택시' 내년 지원금 2배로</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>'불수능'에도 수시 이월인원 대체로 감소...SKY 정시 최종선발인원 4,386명</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>충남도 산림자원연구소, 3개 도립공원 새해맞이 행사 전면 금지</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>국내 유일 한국산 호랑이 박제 표본이 113년째 초등학교에 전시된 이유는?</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>부산 동구 ‘2021년 도시재생 한마당’ 대상 수상</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>경기도교육청, '이해충돌 방지법' 교육 영상 제작</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>"朴 '진밥 달라'며 강해졌다"…병원앞은 사면축하 화환 1000개</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>[인사] 전남 보성군</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>[인사] 남양주시</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>보건당국 "16세 청소년, 코로나19 백신 접종 후 사망 첫 사례 접수"</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>해맞이는 이번에도 참아 주세요!…주요 명소 대부분 폐쇄</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>의료진과 기념촬영하는 안철수 후보</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>[경남] 연일 200명 안팎에 오미크론 9명, 12월 5500명 넘어</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>[인사]괴산군</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>경남도교육청, 교육부 '홍보유공 우수기관' 선정</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>'행진' 英근위병, 넘어진 소년 무참히 밟고 지나가…관광객 '충격' [영상]</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>"온실가스 1만1700톤 감축" 도봉구민 1만3400명의 약속</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>내년 '만 12세' 어린이 47만5936명도 백신 접종(종합)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>"강원권 고속도로 해맞이 차량 하루 평균 32만대 예상"</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>[인사] 대전시 대덕구</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>창원시, 학산배 전국장사 씨름대회 지속 개최한다</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>출생신고 안 돼 유령처럼 산 24·22·15살 세 자매 발견</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>부산 대형마트서 택시가 벽 뚫고 추락…8명 사상</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>부산항만공사, 중대재해 예방 간담회 개최</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>부산교육청, 지역화 환경교과서 ‘부산의 환경과 미래’ 개발</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>검찰, 김기표 전 청와대 비서관 투기의혹 보완수사 요구</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>의왕역 전동차 안에서 묻지마 칼부림…시민 1명 부상</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>미국에서 제주로 들어온 입국자, 또 '오미크론 변이' 확진</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>LH 일반정규직 250명 신규 채용…"지역인재 기회 보장"</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>[인사]KBS</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>KBS 충남 설립 '청신호'...내년 타당성 조사 용역</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>화성시, 쓰레기 종량제 봉투 평균 9.9% 인상</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>국민의힘 경남도당, 대선 준비에 만반…총괄대책위원장에 김태호·이달곤</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>눈 내리는 대전</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>울산시 행정박물 도록 발간... 릴 녹음기 등 사무집기 볼거리</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>[인사] 기상청</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>경찰, '윤석열 처가회사 공흥지구 특혜의혹' 약 한달 만에 압수수색</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>눈 내리는 대전</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>눈 내리는 대전</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>눈 내리는 대전</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>칠곡 방문해 지지자들에게 발언하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>윤석열 후보가 다부동 전적기념관 방문해 남긴 방명록</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>“재택치료 확대…위험도 낮은 시설부터 방역패스 해제”</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>양성일 차관, 사회복지관 방역 상황 점검</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>부산 '마트 5층'에서 택시가 떨어졌다…운전자 사망, 7명 부상</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>양성일 차관, 충북 증평군 사회복지관 방문</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>구국용사충혼비에 헌화하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>칠곡 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>윤석열 후보, 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>구국경찰충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>윤석열 후보, 구국용사충혼비 참배</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>칠곡 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>칠곡 찾은 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>구국용사충혼비 참배 마친 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>지지자들에게 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>지지자들 향해 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>경북 칠곡 방문한 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>지지자들에게 인사하는 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>경북 칠곡 방문한 윤석열 후보</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>여가부, 디지털 성범죄 피해자 지원센터 현장점검</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>여가부, 디지털 성범죄 피해자 지원센터 현장점검</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>현장시장실 열과 대학생 만나는 허태정 시장</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>김상호 하남시장 "'살자리·놀자리·일자리' 어우러지는 덕풍3동 되도록 최선"</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>전북 오미크론 확진자 3명 추가…누적 124명</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>술 취해 구급대원 폭행한 30대 벌금 500만 원</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>양성일 차관, 삼보사회복지관 방문</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>양성일 차관, 사회복지관 방역 상황 점검</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>대구 오미크론 감염자 10명 추가…어린이집·유치원 집단 관련으로 7명 포함</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>LNG가 녹색? 시민단체들 발끈... "정부가 퇴출대상 합법화해준 꼴"</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>신호대기 중인 차량 덮친 택시</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>인천의료원을 방문한 안철수 대선후보</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>코로나19대응 현황을 듣고 있는 안철수 후보</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>남양주시, 시민소식지 열수 5·6호 동시 발행</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>[인사]영양군</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>신호대기 중인 차량 위로 '날벼락'</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>부산 북항 오페라하우스 '중구' 품으로…동구청 소송 기각</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>'3회 연속 발사' 한국형 테이저건 도입‥경찰, 현장 대응력 강화</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>파리의 일상 기록한 여류 사진작가 사빈 바이스 사망</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>슈워제네거, 10년 만에 이혼 종결···재산 분할 합의</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>"농촌에 외국인 끌어들이려면 체류자격별 '맞춤형 서비스' 해야"</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>충남도, 안면도 수목원에 무장애나눔길 조성</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>전주시, 지방재정 우수사례 평가 국무총리상 받아</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>5층 벽 뚫고 추락한 택시… 신호대기 차량 10여 대 덮쳤다</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>미 월가 몰락 시초 베어스턴스의 지미 케인 전 CEO 별세</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>[부고] 이승훈(대화 대표이사)씨 빙부상</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>'인천 장애인 질식사' 관련 복지사 업무복귀…유족 반발</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>홀로 먹이활동 하는 재두루미</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>홀로 먹이활동 하는 재두루미</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>홀로 먹이활동 하는 재두루미</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>[신년사] 강삼권 벤처기업협회장 "혁신 창업생태계 조성 노력"</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>아주대학교, '박성준.김주희 공동연구팀...IGZO 기반의 바이오센서 개발에 성공'</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>경남에 코로나19 확진 148명 추가…도내 하루 219명 감염</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>[송년호] 젊은 세대 문해력 저하…지표로 드러나</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>농어촌공사, 제3기 사내벤처팀 ‘MWP 블루오션’팀 선정</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>[인사] 전북 고창군</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>제주 오미크론 감염 1명 추가…16명 신규 확진</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>섬개연, PET병 재활용 그린섬유사업 추진</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>'밤샘 영업' 예고한 자영업자 또 나왔다…"유튜브 중계할 것"</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>[인사] 광주지방국세청</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>매서운 한파 속 충남·호남 많은 눈</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>[인사] 금융감독원</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>방역당국 "노바백스 백신 내년 1월 국내 사용허가 전망"</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>[부고] 김강정(전 MBC보도국장·iMBC 사장)씨 별세</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>경찰, 신변보호 대신 범죄피해자 안전조치 만든다...현장대응력 강화 대책 발표</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>조국 일가, 두번째 실형 확정…동생, 대법서 징역 3년(종합)</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>경남 199명 추가 확진…과반은 확진자 접촉 추정·집단감염도 지속</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>전북 대부분 대설주의보…최대 15cm 눈 전망</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>걸음 재촉하는 시민</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>“걸어가던 父, 이유 없이 14번 찔렀는데…그 놈은 조현병으로 감형“ 유족의 울분</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>[송년호] 글 이해 능력 떨어지는 젊은 세대, 이대로는 위험하다</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>경남교육청, '도민 소통' 활성화 우수기관 선정되다</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>유영하 "박근혜 전 대통령 석방 전후 입장발표 따로 없다"</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>창원에서 국내 1호 수소생산기지 본격 가동, 수소가스 1t 첫 출하</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>한혜연, 조카 유모차 끌고 차도로…"횡단보도 바로 옆에 두고" 뭇매</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>"구로·남구로시장 380개 점포, 360도 가상현실로 구경하세요"</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>눈 쌓인 공원</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>울진 공무원, 영덕까지 가서 술집 행패…군민들 개탄</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>눈 내리는 풍경</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>이상민 "송영길, 안철수 연대하려면 사전 준비했어야…뜬금없이 러브콜"</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>내년부터 입양축하금 200만원·입양아동 양육수당 월20만원 지급</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>눈 쌓인 공원</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>'홍대 미대 교수 성희롱 의혹'…홍대 측, 징계위원회 구성</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2021 증권·파생상품시장 폐장식 부산서 개최</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>충북, 어린이집·학교 감염 '지속' 58명 확진…누적 1만1482명</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>제주 오미크론 변이 확진자 또 발생…누적 4명</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>[인사]우정사업본부</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>창원 회성동 자족형 복합행정타운 내년 착공…행정절차 끝나</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>동해항 컨테이너 화물처리 여건 개선…복합물류항만 가시화</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>오늘의 운세 (2021년 12월 31일 金)</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>대법, ‘웅동학원 채용 비리’ 조국 동생 징역 3년 확정</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>울산대 캡스톤디자인 경진대회 성료…IT융합학부팀 대상</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>공수처장 "검·경도 하는 통신조회…野, 알면서 그러진 않을 것"</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>코로나 이후 원격수업 늘며 전자기기·영상 미디어 친숙해진 영향 커</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>사명감 넘치는 경찰 얼마나 많은데…부실대응 뉴스 쏟아질땐 속상하죠</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>데이트폭력·가정폭력에…신변보호 건수 3년새 두배</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>올해 마지막 날은 술 대신 ‘회고모임’ 어떤가요</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>내년 신규 접종 대상 2010년생, 방역패스 적용 안해···청소년 방역패스 계획 내일 발표</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>[인사]질병관리청</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>도교육청 우수·하반기 모범공무원에 대한 정부포상 전수</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>창원시 하반기 퇴임식 개최…66명 공직 떠나</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>40년 넘은 울산 학교건물 31곳 개선…2025년까지 3천600억 투입</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>[단독] 영업제한 처벌에 '노래방' 빠뜨린 서울시..."고시 '복붙'하다 실수"</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>[경남소식] 도교육청, 교육부 주관 '홍보 우수사례' 기관 선정</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>"추가합격 전화인 줄" 수험생 울상…허경영 "내 전화는 곧 행운"</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>한은 충북본부, 설 앞두고 특별자금 150억원 지원</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>[인사] 경찰청</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>강명원 서울청 홍보협력계장 등 87명 '경찰의 꽃' 총경 승진(종합)</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>통영해경, 도서벽지 노인정 25곳에 쌀 100포대 전달</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>[경기] 경기도, 내년부터 아파트 착공 전 설계 자문 적용</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>철원군, 소상공인 긴급운영자금 100만원씩 지원…총 30억원 규모</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>범어4동 '가로주택정비 vs 재개발' 주민들 신경전…'난개발' 우려까지</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>올해 충남 대표 문화상품에 '용봉환두' 선정</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>[인사] 우정사업본부</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>'임인년' 맞이 광안리해수욕장에 소 가고 검은 호랑이 왔다</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>성신여대-KIA 타이거즈, '데이터 기반 과학 야구 시스템 구축' 협약</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>[경기] 사립학교 교직원 채용 도교육청에 위탁할 경우 지원</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>해남군, 발로 뛴 만큼 성적도 빛나</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>서울시의회, 서울농수산식품공사 사장 후보자 청문보고서 채택</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>상사와 다툰 후 쓰러져 사망···법원 "업무상 재해"</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>대형마트 5층 벽 뚫고 택시 추락…1명 사망 · 7명 부상</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>남재환 가톨릭대 교수, 과기부장관 표창…"국내 백신 개발 기여"</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>중부해경청, 현장의견 반영한 방제장비 개발 보급</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>&lt;인사&gt; 생명보험협회</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>오늘의 부고 종합</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>[인사] 한국가스안전공사</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>오늘의 인사 종합</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>오병권 권한대행, 광주 제설 전진기지 현장 점검</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>"또 고령운전자 사고"…잇따르는 대형사고에 대책 서둘러야</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>'오세훈표 신속 재건축' 판 커졌다…압구정 등 18곳 추진(종합)</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>[영상] 5층서 도로로 다이빙하듯…대형마트 벽 뚫고 택시 추락</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>화성시, 31일부터 쓰레기봉투 값 인상…20ℓ 540원→600원</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>유치원 방학 기간 연장 소식에 난감해진 학부모들…“갑자기 아이 어디에 맡기나”</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>동해 망상 2·3지구 시행사 실시계획 승인 신청…개발사업 시동</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>전북 김광수·유성엽·김종회·김세웅 전 의원, 민주당 복당</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>광주 어린이보호구역 주정차 전면금지…1월1일 시행</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>시민단체 '성매매 의혹' 이준석 검찰에 고발</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>모델가수 신광우씨와 딸, 2대에 걸쳐 사할린 동포 어르신 돕기</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>경북경찰청서 총경 2명 배출…김시동 홍보계장·최문태 강력계장</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>[인사]질병관리청</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>'웅동학원' 채용비리·허위소송 조국 동생 조권 징역 3년 확정</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>"현행 거리두기 3주 연장" 괴문서 확산…"결정된 것 없다"</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>윤석열 처가 ‘개발 특혜 의혹’ 양평군청 압수수색</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>[인사] 한양증권</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>'수사기밀 누설 의혹' 이태종 전 법원장 '무죄' 확정</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>술 취해 어선 7㎞ 운항한 선장…벌금 1500만원</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>압수수색을 마치고 철수하는 경찰</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2021.12.30 17:01</t>
         </is>
       </c>
     </row>

--- a/backend/data/102.xlsx
+++ b/backend/data/102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,3840 +448,3120 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>청소년 방역패스 적용 연기될 듯</t>
+          <t>코로나19로 염증성장질환 치료-관리 "빨간불"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.30 17:34</t>
+          <t>2021.12.30 18:04</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>'헬멧 착용 의무화' 7개월만에…전동킥보드 멈췄다</t>
+          <t>거창 감악산, 한국관광공사 올해의 여행지 TOP9에 선정</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.30 17:34</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>檢, 김정태 하나금융 회장 소환 조사</t>
+          <t>'성관계 불법촬영' 골프리조트 회장 아들 구속기소…피해 여성 수십명</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.30 17:34</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[인사] 장흥군</t>
+          <t>검찰, ‘여성 수십 명 불법 촬영’ 골프 리조트 회장 아들 구속기소</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[인사]대한무역투자진흥공사</t>
+          <t>광주 북구의원, 열정적 의정활동 인정 ‘지방의정봉사상’ 수상</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>학부모 반발에…시간끌다 결국 연기</t>
+          <t>'생존지원금' 7700억 막판 합의...서울시 예산안 처리 가닥</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>청주시 신청사 건립 중앙투자심사위 통과…규모는 축소</t>
+          <t>교육교부금 논란, 조 단위 이월·불용액 줄여야 해결</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>경주시 4~8급 149명 승진인사 단행</t>
+          <t>내년도 '코로나 역설'…강력범죄 줄고 방역·사이버범↑</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>영남이공대 '소콘'계열, IT 실무 인재 양성…"일본 취업 135명"</t>
+          <t>살아있지만 존재하지 않는… 20여년 무호적자로 살아온 ‘제주 세자매’</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>광주시, 내년 6월까지 상생카드 10% 할인 연장</t>
+          <t>영양군∙ 경찰서, 여성 및 아동 안전 귀갓길 조성</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>전북 완주군, 소상공인 안심콜 출입관리 서비스</t>
+          <t>[비디오머그] 2022 새해 첫 '돈쭐'은 여기! 올해 '돈쭐'난 사장님의 충격 근황 (ft.장발…?)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>경기 '민간주도형 창업지원' 성과···참여기업 절반 이상 후속 투자유치</t>
+          <t>'공수처 통신조회' 대선정국 뇌관…"윤로남불" vs "불법사찰"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>청소년 방역패스 내년 3월 도입 가닥</t>
+          <t>인사말 하는 한정애 장관</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.30 17:33</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>경기관광공사 사장 후보 사퇴에 '1년째 사령탑 부재'…행정공백 우려</t>
+          <t>에코스쿨 조성사업 업무협약</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>귀갓길 여성 끌고가 ‘묻지마 폭행’… “화풀이 대상”</t>
+          <t>'불법촬영 혐의' 골프리조트 회장 아들 구속 기소</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>'고양이가 범인' 서울 인덕션 화재 3년간 107건</t>
+          <t>김진욱 '언론사찰' "수사중이라 말못해"…법조계 "위헌적 검열"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>은혜갚는 스타트업…지역 상생에 팔 걷었다</t>
+          <t>‘전역 취소’ 판결 끝내 못 들고…철옹성 군 차별에 희생</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>부경대의 새 마스코트 ‘백경이와 뿌공이’</t>
+          <t>[내일날씨]강추위로 보내는 2021년…새해 첫날까지 ‘꽁꽁’</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>작년 울산 기업활동 지표 전반적 악화…"코로나 직격탄 영향"</t>
+          <t>잇단 이의제기에도 안일한 대응…시험 문제 하나에 온나라 들썩</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>울산교육청, 전국 교육청 최초 윤리적 소비 '공정무역기관' 인증</t>
+          <t>[논담] “이재명·윤석열 오락가락 부동산 감세...차기 정부서도 실패 우려”</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>계명문화대, 국가직 지역인재 공무원 시험 2명 합격</t>
+          <t>전이성 대장암 환자, 정밀 방사선치료로 항암제 효과 극대화</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>전주시, 전통한지 생산시설 준공</t>
+          <t>文 "코로나 일시적 아냐…병상 확보 지속 가능해야"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>전북 김제시, 여성청소년 위생용품 지원</t>
+          <t>연속혈당 측정기·인슐린펌프가 1형 당뇨병 개선에 도움</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.30 17:32</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>한상혁 방통위원장, 불교방송 코로나19 방역 점검</t>
+          <t>대법, ‘대만인 유학생 사망’ 음주운전 징역 8년 파기환송…‘윤창호법’ 위헌 후 첫 사례</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[인사] 금융감독원</t>
+          <t>경남 코로나 219명 발생…고령 환자 2명 사망, 오미크론 2명 추가</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>광양항 묘도수도, 선박사고 위험 확 줄어든다</t>
+          <t>대구시, 미군부지 속속 돌려받는다...이번에는 캠프워커 서편도로와 47보급소</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 18:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>경동나비엔 손연호·김종욱 각자대표 체제로</t>
+          <t>2021 겨울 핫 패션아이템 '발라클라바', 유행인 이유</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>이환주 남원시장 ‘2021 자랑스러운 한국인 대상’수상</t>
+          <t>[인사] 경기도 여주시</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[녹색] 외국인 입맛 잡는 토마토 고추장...청년 농업인이 희망</t>
+          <t xml:space="preserve">포항시, ‘지자체 최초’ 수산물 시험·검사기관 지정  </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:59</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>대전 국공립 유치원 방과 후 과정 전담사 파업…100여명 참여</t>
+          <t>법무부, 전국 교정시설 폭행사고 예방 실태 특별점검</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.30 17:31</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>한국기술교육대, '미래유망분야 고졸인력 양성사업' 설명회 열어</t>
+          <t>국내 첫 쇳물 생산…'포스코 1고로' 역사 속으로</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[날씨]충청·경북·전북 대설특보…내일 아침 최저기온 영하 15도</t>
+          <t>검찰, '성관계 불법촬영 혐의' 기업회장 아들·비서 구속기소</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>우동꽃오아시스 문해교육 ‘따스함’ 20차시 성료</t>
+          <t>대법원, '웅동학원 비리' 조국 동생 조권 징역 3년 확정</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>충남 유통 양식 수산물 2건, 동물용의약품 잔류 허용기준 초과</t>
+          <t>[인사] 산업통상자원부</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>경찰 신변보호, 범죄피해자 안전조치로 개편… 테이저건 훈련 정례화</t>
+          <t>검찰, '성관계 불법촬영' 리조트 회장 아들 구속기소</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:58</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>울산 오미크론 감염자 5명 추가</t>
+          <t>대학생들 만난 허태정 대전시장</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>광주시교육청, 사립유치원 전수감사</t>
+          <t>광주전남지방법무사회, 연말연시 이웃돕기 성금 2035만원 전</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>규제특구·스마트공장 '양날개'···지역경제 견인차로 뜬 경북TP</t>
+          <t>올해 마지막날도 춥다…중·남부 아침 -10도 이하</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.30 17:30</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>대전기독교복지관 '사랑의 천사나무' 사업으로 소외계층에 선물</t>
+          <t>'윤창호법' 위헌에...대법 "유학생 숨지게 한 음주운전자 다시 재판"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[인사]모아저축은행</t>
+          <t>검찰, '성관계 불법촬영' 골프리조트 회장 아들 구속기소</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>가세연, 이준석 서울중앙지검에 고발…1380만원 금품 수수, 성접대 혐의</t>
+          <t>“한국은 왜 반대로 가나요”…‘유학생 사망’ 음주운전자 유죄 파기</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>조응천 의원 "남양주시 전선지중화 사업 확정"</t>
+          <t>‘경찰의 꽃’ 총경 승진 87명···서울 26명, 경기남부·부산 6명</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2차 접종 맞은 16세 사망 신고…"가장 어린 나이"</t>
+          <t>사일로 해체 공사 착수 기념행사</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>부산 북구, 보건복지부 자활사업 분야 ’우수 지자체‘ 선정</t>
+          <t>BNK경남은행, 고백 챌린지 기부금으로 저소득 어린이 지원</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>바이오젠 인수 '부인’한 삼바…‘바이오시밀러 외도’ 결론은 미지수로</t>
+          <t>올해 마지막날도 한파… 중부지방 낮에도 영하권</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>"골목상권 살리자" 특화카드·캐시백 쏟아진다</t>
+          <t>‘대만 유학생 사망’ 음주운전자 유죄 파기...대법 “윤창호법 위헌, 재판 다시”</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.30 17:29</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BRIC 선정 '한국을 빛낸 사람들'에 의정부성모 임성민 교수</t>
+          <t>“폭탄 터진 줄…상인들 소화기 들고 뛰어나와” 부산 마트 사고 상황[현장]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>지역사회 쉼터 '부산 감천 나누리파크' 개장</t>
+          <t>"술자리도 안 끝났는데 먼저 가냐"...폭력 휘두른 30대 2명 집행유예와 징역형</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:57</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>군산 미군기지서 집단감염… 전북지역 1일 확진자 230명</t>
+          <t>[인사] 광주광역시 동구</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.30 17:28</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>울산 동구 건축주택과, 우수부서 포상금으로 '라면 기부'</t>
+          <t>군포시, 산본동 일원 2개 지구 재개발 정비구역 지정</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>대법, '유학생 사망' 음주운전자 유죄 파기…윤창호법 위헌 영향</t>
+          <t>검찰, ‘불법촬영 혐의’ 골프리조트 회장 아들 구속 기소</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>대한민국 우수 교육시설에 세종 해밀학교 대상</t>
+          <t>구미형 일자리, 상생형 지역 일자리 사업 최종 선정</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>정환만 세무사, 불우이웃에 12년간 1억원 이상 기부</t>
+          <t>대구 안심 119안전센터 개소…ICT 기반 K-스마트형 안전센터</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>수수료 현실화 하는 쿠팡이츠...건당 1,000원 프로모션 종료</t>
+          <t>[인사] 대구시 수성구청 인사발령</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[인사] 금융감독원</t>
+          <t>[인사] 전남 신안군</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:56</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>'쾅' 굉음 내며 5층 벽 뚫고 추락한 택시…운전자 사망·8명 사상[영상]</t>
+          <t>'탈시설 장애인' 자립 돕는다…복지부, 내년부터 시범사업</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[영상] 부산 대형마트 5층 벽 뚫고 추락한 택시…주변 아수라장</t>
+          <t>노바백스 백신, 다음달 허가 전망…"1·2차접종에만 활용"(종합)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>한밤중 화재, 원인은 ‘고양이’…“집 비울땐 전기레인지 조심하세요”</t>
+          <t>여수청소년해양교육원, 관광·레저업체와 상호 협력</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.30 17:27</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>제주항서 화상 입은 50대 남성 ‘긴급 이송’</t>
+          <t>'웅동학원 비리' 조국 동생... 대법원, 징역 3년 확정</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[인사] 전남 장흥군</t>
+          <t>범죄피해자에 10일이상 안전숙소 제공... 내년 스마트워치 성능 높여 1만대 확대</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>인덕션 ‘꾹’…고양이가 낸 화재, 서울서 3년 간 107건</t>
+          <t>"추위·코로나 피하세요" 서울역 노숙인 텐트</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>김형기 전북교육청 행정과장 ‘근정포상’…박태규 사무관 총리상</t>
+          <t>"더이상 장사 힘들다"… 거리두기 연장 가닥에 자영업자 한숨</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>‘역사왜곡 논란’ 설강화 측 “근거 없는 비방과 날조된 사실에 강경 대응”</t>
+          <t>[인사] 전남 순천시</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>남도기자협회, 장성농업기술센터 조재형 농촌지도사에 ‘감사패’ 전달</t>
+          <t>김정섭 공주시장, '제59회 대한민국연극인축제' 공로상 수상</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KS수학학원, 7년째 신애보육원생들에게 따뜻한 선물 전달</t>
+          <t>‘새해맞이’  방역 비상 ···강릉행 KTX 조기 매진·방 쪼개기 등 편법까지 동원</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.30 17:26</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>'알고리즘 신'의 간택...2021년은 어땠나</t>
+          <t>GBICT, ‘경북 SOS랩 시민연구반 필드랩’성황리 마무리</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:55</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>인천시의료원 방문한 안철수 대선후보</t>
+          <t>법원, '귀갓길 여성 폭행' 20대에 징역 2년 6개월 선고</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>인천시의료원 방문한 안철수 대선후보</t>
+          <t>시의회, 서울농수산식품공사 사장 후보 청문보고서 채택</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>"자생식물을 도시 정원식물로" 국립세종수목원, 보급사업 추진</t>
+          <t>[인사] DGB금융그룹</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>인천시의료원 방문한 안철수 대선후보</t>
+          <t>[인사] 한국부동산원</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[인사] SRB미디어그룹</t>
+          <t>[인사]  영양군</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>'대만인 사망' 음주운전 파기환송…이유는 '윤창호법 위헌'</t>
+          <t>"가세연 영구 퇴출하라"…MBC기자 신상공개 '후폭풍'</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>“어데갔노 손실보장” 경남소상공인 생존권 보장 결의대회</t>
+          <t>대구 조정대상지역 '유지'...아파트 매매가 7주 연속 하락세</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[엠빅뉴스] 실탄 11발을 쐈지만 마약에 취한 조폭 부부는...</t>
+          <t>범행자백해도 말바꾸면 不인정…檢 "영상녹화·증언 활용 확대"</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[인사종합] 과학기술정보통신부 외</t>
+          <t>경북 포항 호미곶 주변해역 25만㎡ 해양보호구역 지정</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>의료진과 기념 촬영하는 안철수 대선후보</t>
+          <t>[인사] 대구시</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>의왕역 전동차 안에서 ‘묻지마 칼부림’… 시민 1명 부상</t>
+          <t>'위드 코로나' 지난달 주말밤  20대는 홍대·이태원 모였다</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>손님 에르메스 코트에 음식 엎어… 알바생 800만원 날릴 판</t>
+          <t>서울시 예산안 놓고 시의회 내부 이견…연내 처리 무산되나</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>“가세연 여성혐오와 비하, 도 넘었다”…유튜브에 폐쇄 요구</t>
+          <t>한국노총, 민노총 제치고 제1노총 복귀</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>뉴타운 무산된 군포 산본동 2개 지구 재개발정비구역 지정</t>
+          <t>울진군,  지역 해맞이 명소 전면 패쇄</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.30 17:25</t>
+          <t>2021.12.30 17:54</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[인사] 충북도청</t>
+          <t>'초등학교도 오미크론 감염'…광주 63명·전남 29명(종합)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>인천시의료원 의료진 고충 듣는 안철수 대선후보</t>
+          <t>재난문자 읍·면·동 세분화… 내년말부터 문자 수신 덜 받는다</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[천안소식] 박상돈 천안시장 명예 해병 됐다</t>
+          <t>서울시 계절관리제 한달간 5등급차 운행 위반 78%↓</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>인천시의료원 음압병동 방문한 안철수 대선후보</t>
+          <t>[부고] 신현덕(전 현대방송 상무)씨 모친상</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>인천시의료원 음압병동 방문한 안철수 대선후보</t>
+          <t>홍성 서부 7.1㎝…충남권 저녁까지 눈 "퇴근길 주의"</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>수의계 "공중방역수의사 증원 필요"…추가합격자 수 공개</t>
+          <t>"3개월 안에 상장됩니다" 카톡에…8000만원 뜯겼다</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>인천시의료원 현황 청취하는 안철수 대선후보</t>
+          <t>부산소방재난본부장, 부산소방학교 격려방문</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>인천시의료원 방문한 안철수 대선후보</t>
+          <t>[인사]금융감독원</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:53</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>울산대병원, 보건복지부 응급의료기관 평가 A등급 획득</t>
+          <t>고양시, '2035년 고양도시기본계획' 경기도 최종 승인</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[인사] 경기 여주시</t>
+          <t>울산 남구, 반려동물정책계 신설 등 조직개편 예고</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>'청소년 방역패스' 조정안 내일 발표…한달 연기 검토</t>
+          <t>신나는 겨울방학</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>내년부터 국내 의료기기 베트남 수출 빨라진다</t>
+          <t>경기교육청, 사립교원 위탁채용 지원... 사학비리 근절하고 공정·투명성 강화</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>중증률 낮은 오미크론 조만간 우세종…거리두기 대폭 완화될 듯</t>
+          <t>행안부, 보통교부세 55조 교부… 전년比 23.7%↑</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>삼육부산병원과 함께하는 따뜻한 겨울나기</t>
+          <t>갤러리아 광교, 유네스코 '베르사유 건축상' 세계 1위</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>강명원·장현덕 홍보협력계장 등 87명 총경 승진</t>
+          <t>시 전역 조명환경관리구역 된다... 광주시, 내년 1월 1일 전면 시행</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>'조국 동생' 조권씨, 웅동학원 채용비리로 징역 3년형 확정</t>
+          <t>"경험·전문성 갖춘 인재 찾습니다" 내년 상반기 47개 직위 공개채용</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.30 17:24</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>기댈 곳 없는 학폭 피해자…보호 대책 유명무실</t>
+          <t>윤창호법 위헌 결정에…‘대만인 유학생 사망’ 음주운전자 징역 선고 파기</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>경남 219명 확진·2명 사망…어제 누계 197명(종합2보)</t>
+          <t>부산지방우정청, ‘사랑의 동전 10,000,000원’ 굿네이버스에 전달</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>부당 지시 상사와 언쟁 후 뇌출혈로 쓰러져 사망… "업무상 재해"</t>
+          <t>충남·대전·세종·전북 대설주의보</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>구리시민이 선정한 2021년 시를 빛낸 뉴스는 ‘GH 유치 확정’</t>
+          <t>'특별사면' 박근혜 석방…당분간 입원치료에 전념</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:52</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>94년 만에 복수 철도망…중부내륙철 1단계 개통</t>
+          <t>광주시, 캐스퍼 구매 73명에 보조금 1312만원 지원</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>층간흡연도 욕먹는데 아파트 엘베 안에서 버젓이…아파트 측 '흡연자 3명 사진' 공개</t>
+          <t>김진욱 "검경도 조회했는데 공수처만 사찰이냐…윤석열 영장은 아냐"(종합)</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>[독자와 함께]6·25 참전해 손가락 절단됐는데 '증거 불충분'으로 전상군경 등록 기각</t>
+          <t>군포시, 금정역 주변 3400여 세대 아파트 짓는다</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>검찰, 김정태 하나금융 회장 소환…곽상도 50억 의혹 조사</t>
+          <t>시의회, '오세훈 내정' 농수산식품공사장 후보 '적격' 의견</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.30 17:23</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>도쿄올림픽 3관왕 광주여대 안산, 보신각 '제야의 종' 타종</t>
+          <t>춘천 지역 바이오 업체 매출 9,443억 원 기록</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>경남도·진주시·지역대학 협력, LH 신규채용 이끌어</t>
+          <t>2050년 탄소중립땐 고탄소산업 주가 반토막</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>고양시, '2035년 고양도시기본계획' 경기도 최종 승인</t>
+          <t>커지는 ‘민간인 사찰’ 논란에 김진욱 공수처장 “통신조회 사찰 아냐…억울해서 수사내용 밝히고 싶다”</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>서구, 행안부 ‘주민참여예산제도 운영평가’서 우수 지자체 선정</t>
+          <t>충남 수출, 사상 첫 1000억弗 돌파 눈앞… 韓무역 흑자 견인</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>“여친과 헤어져서 화풀이”…귀가 여성 주차장 끌고 가 폭행</t>
+          <t>"겨울방학 숙제 뭐가 있나"</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[인사] 과학기술정보통신부 / 기상청 / 관세청 등</t>
+          <t>[포토] 그래도…신나는 겨울방학</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>경남 진주 폐자재 처리업체 화재…1시간 20분만 완진</t>
+          <t>짝퉁·아바타 성폭력…메타버스 파고든 新범죄</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:51</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>광주 남구 "도시경쟁력 강화할 것"</t>
+          <t>한국기술교육대, '스마트혼합훈련 우수사례 공모전' 시상식</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>폐교에 친환경 녹색건축물 조성… 환경교육시설 거점시설로 운영.</t>
+          <t>[부고] 신현경(전 세계일보 기자)씨 모친상</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>혐오 시설서 체육시설로 탈바꿈한 양산신도시 남부유수지, 문화체육센터로 또 변신</t>
+          <t>기장 '좌광천 건강 30리길' 준공... 병산지 둘래길 2022년 전면 개방</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>[부음] 백한기씨 별세</t>
+          <t>[뉴스메이커] 박태완 울산 중구청장, 코로나19 여파 속 행정서비스 사업…성과는</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.30 17:22</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>한국지역난방공사, 한국가스공사와 천연가스 개별요금제 매매계약 체결</t>
+          <t>참여율 42% 불과...실효성 없는 대학 성폭력예방교육</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>[인사] 대전 대덕구</t>
+          <t>[인사]DGB금융그룹</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>'경찰의 꽃' 총경 승진…장현덕 · 이기범 등 87명</t>
+          <t>"가이드북 지원으론 역부족"···취약지대 中企 아우성</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:50</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>직장 상사와 다툰 직후 쓰러져 사망‥법원 "업무상 재해"</t>
+          <t>'경찰의 꽃' 광주·전남 총경 승진 4명</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>봉화 산불 0.5㏊ 태우고 2시간 만에 진화(종합)</t>
+          <t>동장군 찾아온 황태덕장…올겨울 덕걸이 시작</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>[게시판] 성신여대-KIA타이거즈, 과학 야구 시스템 구축 협력</t>
+          <t>"유독 성범죄자에 낮은 형량주는 판사 탄핵해야" 靑 청원</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>포스코-경동나비엔 따뜻한 동행…취약계층 보일러 무상 교체</t>
+          <t>대전경찰청, 총경 승진자 2명 배출</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>부산 대형마트 5층 주차장서 택시 추락…8명 사상</t>
+          <t>“사업추진 빨라진다”, 재개발·재건축 ‘신통기획’ 붐…선정 조건은?</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>[동정] 권덕철 복지장관, 서울아산병원 의료진과 간담회</t>
+          <t>직장상사와 말다툼 벌인 후 숨져…법원 "업무상 재해"</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>[인사] 전남 장흥군</t>
+          <t>[인사] 전남 해남군</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>[인사] 담양군</t>
+          <t>내년 지방교부세 올해 44.5조원 대비 10.6조원 늘어난 55.1조원 편성</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>아이와 임산부 위한 '강동아이맘택시' 내년 지원금 2배로</t>
+          <t>부산 오페라하우스 행정 구역은 '중구'…대법원에서 확정</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>'불수능'에도 수시 이월인원 대체로 감소...SKY 정시 최종선발인원 4,386명</t>
+          <t>의왕역 전동차서 ‘묻지마 칼부림’... 시민 귀 찔렸다</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>충남도 산림자원연구소, 3개 도립공원 새해맞이 행사 전면 금지</t>
+          <t>개별법 형태는 韓 포함 전세계 2개국뿐, 英은 사망사고에 한정···개인 처벌도 없어</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:49</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>국내 유일 한국산 호랑이 박제 표본이 113년째 초등학교에 전시된 이유는?</t>
+          <t>공주교도소 수용자 폭행치사 여부 집중조사…동거 수용자 입건</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>부산 동구 ‘2021년 도시재생 한마당’ 대상 수상</t>
+          <t>[인사] 강원 양양군</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>경기도교육청, '이해충돌 방지법' 교육 영상 제작</t>
+          <t>칠곡군, 내년에도 지역상품권 10％포인트 지원혜택 유지</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.30 17:21</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>"朴 '진밥 달라'며 강해졌다"…병원앞은 사면축하 화환 1000개</t>
+          <t>'후배 위해 선배들 뭉쳤다'…음성고동문장학회 설립 착수</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>[인사] 전남 보성군</t>
+          <t>[인사]순천시</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>[인사] 남양주시</t>
+          <t>[인사]보성군</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>보건당국 "16세 청소년, 코로나19 백신 접종 후 사망 첫 사례 접수"</t>
+          <t>[인사] 헌법재판소 외</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>해맞이는 이번에도 참아 주세요!…주요 명소 대부분 폐쇄</t>
+          <t>대구경북 대학 수시모집 선방…등록률 대부분 전년 대비 상승</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>의료진과 기념촬영하는 안철수 후보</t>
+          <t>합천군, 내년 1월 지명위원회 열어 '일해공원' 명칭 심의</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:48</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>[경남] 연일 200명 안팎에 오미크론 9명, 12월 5500명 넘어</t>
+          <t>대구경찰청 '경찰의 꽃' 총경 3명 배출…채승기·이규종·권창현</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.30 17:20</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>[인사]괴산군</t>
+          <t>이재명 지지 ‘대구시민캠프’ 출범…송필경·원유술·노진철 등 참여</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>경남도교육청, 교육부 '홍보유공 우수기관' 선정</t>
+          <t>'이런 영부인 괜찮습니까' 김건희 비난 현수막 12개…종로구청 "철거"</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>'행진' 英근위병, 넘어진 소년 무참히 밟고 지나가…관광객 '충격' [영상]</t>
+          <t>'막을 수 없는 사고'도 책임지라니···법·해석 곳곳 모순 투성이</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:47</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>"온실가스 1만1700톤 감축" 도봉구민 1만3400명의 약속</t>
+          <t>경북 첫 '제10호 대한민국수산식품 명인'에 경주 김헌목씨</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>내년 '만 12세' 어린이 47만5936명도 백신 접종(종합)</t>
+          <t>경남경찰청, 화랑훈련 최우수 기관 선정</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>"강원권 고속도로 해맞이 차량 하루 평균 32만대 예상"</t>
+          <t>'경주천년한우' 2021 축산물 브랜드 경진대회 '최우수상'</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>[인사] 대전시 대덕구</t>
+          <t>출생신고 안 된 25·23·16살 세 자매… 제주서 발견돼</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>창원시, 학산배 전국장사 씨름대회 지속 개최한다</t>
+          <t>가평잣고을시장 창업경제타운 개점</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>출생신고 안 돼 유령처럼 산 24·22·15살 세 자매 발견</t>
+          <t>한국형 녹색분류체계서 ‘원전’ 제외… ‘LNG 발전’은 포함해 ‘그린워싱’ 논란</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>부산 대형마트서 택시가 벽 뚫고 추락…8명 사상</t>
+          <t>대법,'윤창호법' 위헌에 '유학생 사망' 음주운전자 파기환송</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:46</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>부산항만공사, 중대재해 예방 간담회 개최</t>
+          <t>경북 봉화 야산에 불...0.5ha 태우고 2시간 만에 진화</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>부산교육청, 지역화 환경교과서 ‘부산의 환경과 미래’ 개발</t>
+          <t>부산 도심서 마트 5층 벽 뚫고 택시 추락</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>검찰, 김기표 전 청와대 비서관 투기의혹 보완수사 요구</t>
+          <t>지하철 1호선에서 칼부림…가해자 검거</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.30 17:19</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>의왕역 전동차 안에서 묻지마 칼부림…시민 1명 부상</t>
+          <t>전북경찰청, '경찰의 꽃' 총경 승진자 3명 배출</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>미국에서 제주로 들어온 입국자, 또 '오미크론 변이' 확진</t>
+          <t>부산 도심서 마트 5층 벽 뚫고 택시 추락</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>LH 일반정규직 250명 신규 채용…"지역인재 기회 보장"</t>
+          <t>[인사] 대전 유성구</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>[인사]KBS</t>
+          <t>가세연 "이준석 서울중앙지검 고발, 1천380만원 금품 및 성상납 받아"</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>KBS 충남 설립 '청신호'...내년 타당성 조사 용역</t>
+          <t>현대건설-현대종합설계, 임직원 '급여끝전' 모아 2억6,000만원 기부</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>화성시, 쓰레기 종량제 봉투 평균 9.9% 인상</t>
+          <t>신변보호는 범죄피해자 안전조치로···위험등급별로 체계적 대응</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.30 17:18</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>국민의힘 경남도당, 대선 준비에 만반…총괄대책위원장에 김태호·이달곤</t>
+          <t>‘미래에너지 전문기관 도약’…한국석유관리원, 조직개편 단행</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:45</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>눈 내리는 대전</t>
+          <t>[인사] KOTRA(코트라)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>울산시 행정박물 도록 발간... 릴 녹음기 등 사무집기 볼거리</t>
+          <t>광주시, 상생형 지역일자리 '캐스퍼' 구매보조금 지급</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>[인사] 기상청</t>
+          <t>전북교육청, 교육공무직 이해책자 제작</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>경찰, '윤석열 처가회사 공흥지구 특혜의혹' 약 한달 만에 압수수색</t>
+          <t>전남도, 올해 210개 기업과 6조 1127억 원 투자협약 체결</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021.12.30 17:17</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>눈 내리는 대전</t>
+          <t>전북 익산시,간판개선사업 완료</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>눈 내리는 대전</t>
+          <t>순천향대 서울병원 이정재 교수, 제25대 병원장 취임</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>눈 내리는 대전</t>
+          <t>기후위기 시대의 생존방식은 ‘탈성장’, ‘연결’되는 삶</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:44</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>칠곡 방문해 지지자들에게 발언하는 윤석열 후보</t>
+          <t>[인사]전북 진안군</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>윤석열 후보가 다부동 전적기념관 방문해 남긴 방명록</t>
+          <t>‘성매매 의혹’ 이준석, 시민단체에 검찰 고발당했다</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>“재택치료 확대…위험도 낮은 시설부터 방역패스 해제”</t>
+          <t>한국남부발전 '부산 감천 나누리파크' 개장</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>양성일 차관, 사회복지관 방역 상황 점검</t>
+          <t>올라케어, 비대면 진료 플랫폼 최초 '퍼스트브랜드 대상'</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>부산 '마트 5층'에서 택시가 떨어졌다…운전자 사망, 7명 부상</t>
+          <t>전주대, 교양총서 '동서양 문화로 읽는 공존의 인문학' 발간</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>양성일 차관, 충북 증평군 사회복지관 방문</t>
+          <t>‘대만인 유학생’ 목숨 앗아간 음주운전자... 2심 판단 다시 받는다</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>구국용사충혼비에 헌화하는 윤석열 후보</t>
+          <t>마트 5층서 택시 튀어나와 도로로 추락…8명 사상·차량 13대 파손</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+          <t>근무 중 상사와 다툰 후 쓰러져 사망…법원 "업무상 재해"</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+          <t>거제 플랫폼 노동자 10명 중 9명 산재처리 못 받았다</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:43</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>칠곡 찾은 윤석열 후보</t>
+          <t>전주대 김용승 주임, '대학 학사관리' 교육부 장관 표창 수상</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>윤석열 후보, 구국용사충혼비 참배</t>
+          <t>부산 북항 오페라하우스 중구가 품었다…경계 갈등 끝 대법원서 '판정승'</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>구국경찰충혼비 참배하는 윤석열 후보</t>
+          <t>[부고] 신현경 (전 세계일보 기자)씨 모친상</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>윤석열 후보, 구국용사충혼비 참배</t>
+          <t>'수십명과 성관계 불법촬영' 기업 회장 아들 구속기소</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>다부동 전적기념관 찾은 윤석열 후보</t>
+          <t>전주대 박헌일 과장, '대학혁신지원사업' 교육부 장관 표창</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>칠곡 찾은 윤석열 후보</t>
+          <t>대형마트 지상 5층서 택시 추락</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>칠곡 찾은 윤석열 후보</t>
+          <t>부산 대형마트 지상 5층서 택시 추락</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>구국용사충혼비 참배하는 윤석열 후보</t>
+          <t>[인사] KBS</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>구국용사충혼비 참배 마친 윤석열 후보</t>
+          <t>가평 잣고을시장 창업경제타운 개점</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>지지자들에게 인사하는 윤석열 후보</t>
+          <t>BRIC 선정 '한국을 빛낸 사람들'에 의정부성모병원 임성민 교수</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:42</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>지지자들 향해 인사하는 윤석열 후보</t>
+          <t>총경 승진 1명 그친 경기북부경찰청, 인사 홀대에 '불만'</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>경북 칠곡 방문한 윤석열 후보</t>
+          <t>'대만인 유학생 사망' 재판 다시…윤창호법 위헌發 첫 파기(종합)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>지지자들에게 인사하는 윤석열 후보</t>
+          <t>완주군, 곶감·감식초 등 임산물 산지종합유통센터 가동</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>경북 칠곡 방문한 윤석열 후보</t>
+          <t>이정재 신임 순천향대 서울병원장 "최상의 진료와 연구역량 강화"</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>여가부, 디지털 성범죄 피해자 지원센터 현장점검</t>
+          <t>민주당 전북도당 대선 선대위 1차 인선 발표</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>여가부, 디지털 성범죄 피해자 지원센터 현장점검</t>
+          <t>전남 장성군, 전남 주관 국제농업박람회 최우수상 수상</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>현장시장실 열과 대학생 만나는 허태정 시장</t>
+          <t>"대전교육청, 공립유치원 방과후과정 졸속운영 해결하라"</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:41</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>김상호 하남시장 "'살자리·놀자리·일자리' 어우러지는 덕풍3동 되도록 최선"</t>
+          <t>[영상]연기 가득차고 검게 그을린 중앙대 연구실…교수1명 부상</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>전북 오미크론 확진자 3명 추가…누적 124명</t>
+          <t>울산대병원 권역응급의료센터 평가 '4회 연속 최고등급'</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>술 취해 구급대원 폭행한 30대 벌금 500만 원</t>
+          <t>전북경찰청, 총경 3인 배출…박삼서·이석현·정덕교</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>양성일 차관, 삼보사회복지관 방문</t>
+          <t>출생신고 않고 20년 ‘제주 세 자매’…어떻게 알려졌나</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>양성일 차관, 사회복지관 방역 상황 점검</t>
+          <t>제25대 순천향대학교 서울병원장에 이정재 교수 취임</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>대구 오미크론 감염자 10명 추가…어린이집·유치원 집단 관련으로 7명 포함</t>
+          <t>전북도, 대설주의보 재난안전대책본부 가동</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>LNG가 녹색? 시민단체들 발끈... "정부가 퇴출대상 합법화해준 꼴"</t>
+          <t>전기안전공사 산간오지까지 온라인 사용전 점검 확대</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2021.12.30 17:16</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>신호대기 중인 차량 덮친 택시</t>
+          <t>“출생신고 복잡해서...” 세자매, 20년 넘게 투명인간으로 살았다</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>인천의료원을 방문한 안철수 대선후보</t>
+          <t>전북 남원시, 내년 시민안전보험 보장 확대</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>코로나19대응 현황을 듣고 있는 안철수 후보</t>
+          <t>제주서 '출생신고 無' 24·22·15살 세 자매 발견</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>남양주시, 시민소식지 열수 5·6호 동시 발행</t>
+          <t>[포토] 새 시대 향하는 한반도</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:40</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>[인사]영양군</t>
+          <t>[인사] 청주시</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>신호대기 중인 차량 위로 '날벼락'</t>
+          <t>탄소중립 2050 실천 '산림기술산업정책' 토론회 개최</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>부산 북항 오페라하우스 '중구' 품으로…동구청 소송 기각</t>
+          <t>박상돈 천안시장, 명예 해병 위촉</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>'3회 연속 발사' 한국형 테이저건 도입‥경찰, 현장 대응력 강화</t>
+          <t>진안군, 명품사과 첫 베트남 수출…내년 1월 추가수출도</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>파리의 일상 기록한 여류 사진작가 사빈 바이스 사망</t>
+          <t>[부고] 이수일(부산시 대변인) 씨 부친상</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>슈워제네거, 10년 만에 이혼 종결···재산 분할 합의</t>
+          <t>전북 범 여권 인사, 이재명 대통합론에 속속 합류</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>"농촌에 외국인 끌어들이려면 체류자격별 '맞춤형 서비스' 해야"</t>
+          <t>김해시 민간장례식장에 다회용기 전국 최초 보급…내년 2월 시범운영</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:39</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>충남도, 안면도 수목원에 무장애나눔길 조성</t>
+          <t>[인사] 청주시</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>전주시, 지방재정 우수사례 평가 국무총리상 받아</t>
+          <t>김현 전북문화관광재단 관광본부장, GSTC 지명이사 됐다</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>5층 벽 뚫고 추락한 택시… 신호대기 차량 10여 대 덮쳤다</t>
+          <t>[인사] 전남 순천시</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:38</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>미 월가 몰락 시초 베어스턴스의 지미 케인 전 CEO 별세</t>
+          <t>[영상] 인증 취소에도…탤런트 출신 운영 김치업체 불법유통 적발</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2021.12.30 17:15</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>[부고] 이승훈(대화 대표이사)씨 빙부상</t>
+          <t>특수거울로 '女직원 샤워' 훔쳐본 사장…공장에는 '의문의 화재'</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>'인천 장애인 질식사' 관련 복지사 업무복귀…유족 반발</t>
+          <t>제주서 출생신고 안된 25·23·16살 세자매 발견돼</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+          <t>"차비 안 주셨어요"…택시 기사 외침 무시하고 줄행랑</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+          <t>후배에 상습 폭언 한 검사 중징계···'라임 술접대' 검사 심의는 연기</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+          <t>광주 광산구, 지역금융활성화 공로 행안부 장관상 수상</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>외롭지 않니?…강릉서 관찰된 재두루미</t>
+          <t>지하철 전동차 안에서 묻지마 칼부림…승객 1명 부상</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>홀로 먹이활동 하는 재두루미</t>
+          <t>유난히 들썩였던 근흥면… '안흥시험장·광역해양자원순환센터·해상풍력'에 목소리</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>홀로 먹이활동 하는 재두루미</t>
+          <t>[인사]영천시</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:37</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>홀로 먹이활동 하는 재두루미</t>
+          <t>한밭대 최종인 교수, 한국인사관리학회 차차기 회장 선출</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>[신년사] 강삼권 벤처기업협회장 "혁신 창업생태계 조성 노력"</t>
+          <t>[인사] 충북 괴산군</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>아주대학교, '박성준.김주희 공동연구팀...IGZO 기반의 바이오센서 개발에 성공'</t>
+          <t>의왕역 지나는 전동차서 묻지마 칼부림…1명 부상</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>경남에 코로나19 확진 148명 추가…도내 하루 219명 감염</t>
+          <t>상명대-㈜바오밥파트너즈, 업무협약 체결</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>[송년호] 젊은 세대 문해력 저하…지표로 드러나</t>
+          <t>[영상] "CCTV 공개 왜 거부하나" 인천 흉기 난동 피해 가족, 경찰 고소</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>농어촌공사, 제3기 사내벤처팀 ‘MWP 블루오션’팀 선정</t>
+          <t>상사와 언쟁 후 뇌출혈로 사망… 법원 "업무상 재해"</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>[인사] 전북 고창군</t>
+          <t>인제대, 부산해외봉사단 온라인 해단식 진행</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2021.12.30 17:14</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>제주 오미크론 감염 1명 추가…16명 신규 확진</t>
+          <t>송파구, 현장 근로자 위한 '떡국 밀키트' 준비</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>섬개연, PET병 재활용 그린섬유사업 추진</t>
+          <t>[인사] 충북 청주시</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>'밤샘 영업' 예고한 자영업자 또 나왔다…"유튜브 중계할 것"</t>
+          <t>한수원 '기업이미지 공모전' 시상식 가져</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>[인사] 광주지방국세청</t>
+          <t>서울시의회, 오세훈이 내정한 농수산식품공사 사장 후보자 '동의'</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>매서운 한파 속 충남·호남 많은 눈</t>
+          <t>전북 정읍시, 귀농·귀촌 유치지원사업 평가 전국 2위</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:36</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>[인사] 금융감독원</t>
+          <t>백석대 정무진 직원, 천안시장 표창 수상</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>방역당국 "노바백스 백신 내년 1월 국내 사용허가 전망"</t>
+          <t>대전·세종·충남에 눈 펑펑…홍성 7㎝ 쌓여</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>[부고] 김강정(전 MBC보도국장·iMBC 사장)씨 별세</t>
+          <t>강남 아파트서 불법도박 사이트 운영한 일당 검거</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>경찰, 신변보호 대신 범죄피해자 안전조치 만든다...현장대응력 강화 대책 발표</t>
+          <t>[인사]경남 거창군</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>조국 일가, 두번째 실형 확정…동생, 대법서 징역 3년(종합)</t>
+          <t>대법, '대만 유학생 음주운전 사망 사건' 파기환송…"'윤창호법' 위헌, 효력 상실"</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2021.12.30 17:13</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>경남 199명 추가 확진…과반은 확진자 접촉 추정·집단감염도 지속</t>
+          <t>[단독] ‘아이카이스트’ 투자자 모집 투자사 대표, 뒤늦게 사기 혐의 발견돼 재판</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>전북 대부분 대설주의보…최대 15cm 눈 전망</t>
+          <t>서울시, 양재 일대 ICT 특정개발진흥지구 대상지 선정</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>걸음 재촉하는 시민</t>
+          <t>경주시 '아이 낳아 기르기 좋은 도시' 지원 확대</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>“걸어가던 父, 이유 없이 14번 찔렀는데…그 놈은 조현병으로 감형“ 유족의 울분</t>
+          <t>구미시, 시내버스 활용 '스마트 대기오염 측정사업' 실시</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>[송년호] 글 이해 능력 떨어지는 젊은 세대, 이대로는 위험하다</t>
+          <t>[부고] 제대욱(부산시의회 의원) 씨 부친상</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>경남교육청, '도민 소통' 활성화 우수기관 선정되다</t>
+          <t>경찰, ‘尹 처가 회사 공흥지구 특혜 의혹’ 양평군청 압수수색</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:35</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>유영하 "박근혜 전 대통령 석방 전후 입장발표 따로 없다"</t>
+          <t>조원진 대표 “조건만 맞으면 윤석열과 대화할 수 있다”</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>창원에서 국내 1호 수소생산기지 본격 가동, 수소가스 1t 첫 출하</t>
+          <t>코로나부터 공영주차장 현황까지…성북구 '정책매거진' 제작</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>한혜연, 조카 유모차 끌고 차도로…"횡단보도 바로 옆에 두고" 뭇매</t>
+          <t>법무부, '후배에 폭언 갑질' 현직 검사 정직 3개월 의결</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2021.12.30 17:12</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>"구로·남구로시장 380개 점포, 360도 가상현실로 구경하세요"</t>
+          <t>[비디오머그] 2021년 어떤 일이 있었는지 10대 뉴스로 정리해 보았습니다</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>눈 쌓인 공원</t>
+          <t>청소년 방역패스 적용 연기될 듯</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>울진 공무원, 영덕까지 가서 술집 행패…군민들 개탄</t>
+          <t>'헬멧 착용 의무화' 7개월만에…전동킥보드 멈췄다</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>눈 내리는 풍경</t>
+          <t>檢, 김정태 하나금융 회장 소환 조사</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:34</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>이상민 "송영길, 안철수 연대하려면 사전 준비했어야…뜬금없이 러브콜"</t>
+          <t>[인사] 장흥군</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>내년부터 입양축하금 200만원·입양아동 양육수당 월20만원 지급</t>
+          <t>[인사]대한무역투자진흥공사</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>눈 쌓인 공원</t>
+          <t>학부모 반발에…시간끌다 결국 연기</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>'홍대 미대 교수 성희롱 의혹'…홍대 측, 징계위원회 구성</t>
+          <t>청주시 신청사 건립 중앙투자심사위 통과…규모는 축소</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2021 증권·파생상품시장 폐장식 부산서 개최</t>
+          <t>경주시 4~8급 149명 승진인사 단행</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2021.12.30 17:11</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>충북, 어린이집·학교 감염 '지속' 58명 확진…누적 1만1482명</t>
+          <t>영남이공대 '소콘'계열, IT 실무 인재 양성…"일본 취업 135명"</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>제주 오미크론 변이 확진자 또 발생…누적 4명</t>
+          <t>광주시, 내년 6월까지 상생카드 10% 할인 연장</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>[인사]우정사업본부</t>
+          <t>전북 완주군, 소상공인 안심콜 출입관리 서비스</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>창원 회성동 자족형 복합행정타운 내년 착공…행정절차 끝나</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>동해항 컨테이너 화물처리 여건 개선…복합물류항만 가시화</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>오늘의 운세 (2021년 12월 31일 金)</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>대법, ‘웅동학원 채용 비리’ 조국 동생 징역 3년 확정</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>울산대 캡스톤디자인 경진대회 성료…IT융합학부팀 대상</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>공수처장 "검·경도 하는 통신조회…野, 알면서 그러진 않을 것"</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>코로나 이후 원격수업 늘며 전자기기·영상 미디어 친숙해진 영향 커</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>사명감 넘치는 경찰 얼마나 많은데…부실대응 뉴스 쏟아질땐 속상하죠</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>데이트폭력·가정폭력에…신변보호 건수 3년새 두배</t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>올해 마지막 날은 술 대신 ‘회고모임’ 어떤가요</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>내년 신규 접종 대상 2010년생, 방역패스 적용 안해···청소년 방역패스 계획 내일 발표</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>[인사]질병관리청</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>도교육청 우수·하반기 모범공무원에 대한 정부포상 전수</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:09</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>창원시 하반기 퇴임식 개최…66명 공직 떠나</t>
-        </is>
-      </c>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>40년 넘은 울산 학교건물 31곳 개선…2025년까지 3천600억 투입</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>[단독] 영업제한 처벌에 '노래방' 빠뜨린 서울시..."고시 '복붙'하다 실수"</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>[경남소식] 도교육청, 교육부 주관 '홍보 우수사례' 기관 선정</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>"추가합격 전화인 줄" 수험생 울상…허경영 "내 전화는 곧 행운"</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>한은 충북본부, 설 앞두고 특별자금 150억원 지원</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>[인사] 경찰청</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>강명원 서울청 홍보협력계장 등 87명 '경찰의 꽃' 총경 승진(종합)</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>통영해경, 도서벽지 노인정 25곳에 쌀 100포대 전달</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>[경기] 경기도, 내년부터 아파트 착공 전 설계 자문 적용</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>철원군, 소상공인 긴급운영자금 100만원씩 지원…총 30억원 규모</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>범어4동 '가로주택정비 vs 재개발' 주민들 신경전…'난개발' 우려까지</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>올해 충남 대표 문화상품에 '용봉환두' 선정</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>[인사] 우정사업본부</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>'임인년' 맞이 광안리해수욕장에 소 가고 검은 호랑이 왔다</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>성신여대-KIA 타이거즈, '데이터 기반 과학 야구 시스템 구축' 협약</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:07</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>[경기] 사립학교 교직원 채용 도교육청에 위탁할 경우 지원</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>해남군, 발로 뛴 만큼 성적도 빛나</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>서울시의회, 서울농수산식품공사 사장 후보자 청문보고서 채택</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>상사와 다툰 후 쓰러져 사망···법원 "업무상 재해"</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:06</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>대형마트 5층 벽 뚫고 택시 추락…1명 사망 · 7명 부상</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>남재환 가톨릭대 교수, 과기부장관 표창…"국내 백신 개발 기여"</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>중부해경청, 현장의견 반영한 방제장비 개발 보급</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>&lt;인사&gt; 생명보험협회</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>오늘의 부고 종합</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>[인사] 한국가스안전공사</t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>오늘의 인사 종합</t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>오병권 권한대행, 광주 제설 전진기지 현장 점검</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>"또 고령운전자 사고"…잇따르는 대형사고에 대책 서둘러야</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>'오세훈표 신속 재건축' 판 커졌다…압구정 등 18곳 추진(종합)</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>[영상] 5층서 도로로 다이빙하듯…대형마트 벽 뚫고 택시 추락</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>화성시, 31일부터 쓰레기봉투 값 인상…20ℓ 540원→600원</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>유치원 방학 기간 연장 소식에 난감해진 학부모들…“갑자기 아이 어디에 맡기나”</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>동해 망상 2·3지구 시행사 실시계획 승인 신청…개발사업 시동</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>전북 김광수·유성엽·김종회·김세웅 전 의원, 민주당 복당</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>광주 어린이보호구역 주정차 전면금지…1월1일 시행</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>시민단체 '성매매 의혹' 이준석 검찰에 고발</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>모델가수 신광우씨와 딸, 2대에 걸쳐 사할린 동포 어르신 돕기</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>경북경찰청서 총경 2명 배출…김시동 홍보계장·최문태 강력계장</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>[인사]질병관리청</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>'웅동학원' 채용비리·허위소송 조국 동생 조권 징역 3년 확정</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>"현행 거리두기 3주 연장" 괴문서 확산…"결정된 것 없다"</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>윤석열 처가 ‘개발 특혜 의혹’ 양평군청 압수수색</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>[인사] 한양증권</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>'수사기밀 누설 의혹' 이태종 전 법원장 '무죄' 확정</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>술 취해 어선 7㎞ 운항한 선장…벌금 1500만원</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:02</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>압수수색을 마치고 철수하는 경찰</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>2021.12.30 17:01</t>
+          <t>2021.12.30 17:33</t>
         </is>
       </c>
     </row>
